--- a/OIM-Tables.xlsx
+++ b/OIM-Tables.xlsx
@@ -47,11 +47,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="6">
     <fill>
@@ -159,7 +159,7 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -174,22 +174,28 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -444,13 +450,13 @@
       <c r="D4" s="9">
         <v>2521771.0</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>2558124.0</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>2715152.0</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>2984164.0</v>
       </c>
     </row>
@@ -459,18 +465,42 @@
         <v>3</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="G5" s="12"/>
+      <c r="C5" s="9">
+        <v>1180258.0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1212853.0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1334734.0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1428935.0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1624548.0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13">
+        <v>1176967.0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1278995.0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1334903.0</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1415290.0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1715865.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
@@ -498,10 +528,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>175386.0</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>190250.0</v>
       </c>
       <c r="E9" s="9">
@@ -510,7 +540,7 @@
       <c r="F9" s="9">
         <v>183955.0</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>196443.0</v>
       </c>
     </row>
@@ -519,18 +549,42 @@
         <v>3</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="G10" s="12"/>
+      <c r="C10" s="9">
+        <v>71017.0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>73829.0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>79861.0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>83523.0</v>
+      </c>
+      <c r="G10" s="10">
+        <v>86664.0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13">
+        <v>74214.0</v>
+      </c>
+      <c r="D11" s="13">
+        <v>75190.0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>80040.0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>87701.0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>95499.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
@@ -558,20 +612,20 @@
         <v>2</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="9">
-        <v>-6.968</v>
-      </c>
-      <c r="D14" s="9">
-        <v>18914.0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>8083.0</v>
-      </c>
-      <c r="F14" s="10">
-        <v>6838.0</v>
-      </c>
-      <c r="G14" s="11">
-        <v>12146.0</v>
+      <c r="C14" s="15">
+        <v>44566.0</v>
+      </c>
+      <c r="D14" s="15">
+        <v>49676.0</v>
+      </c>
+      <c r="E14" s="15">
+        <v>52013.0</v>
+      </c>
+      <c r="F14" s="15">
+        <v>53342.0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>41612.0</v>
       </c>
     </row>
     <row r="15">
@@ -579,18 +633,42 @@
         <v>3</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="G15" s="12"/>
+      <c r="C15" s="9">
+        <v>38405.0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>40669.0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>42576.0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>46002.0</v>
+      </c>
+      <c r="G15" s="16">
+        <v>47181.0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13">
+        <v>34308.0</v>
+      </c>
+      <c r="D16" s="13">
+        <v>35946.0</v>
+      </c>
+      <c r="E16" s="13">
+        <v>38981.0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>41065.0</v>
+      </c>
+      <c r="G16" s="14">
+        <v>42225.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
@@ -618,20 +696,20 @@
         <v>2</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="9">
-        <v>1299.0</v>
-      </c>
-      <c r="D19" s="9">
-        <v>9683.0</v>
-      </c>
-      <c r="E19" s="9">
-        <v>12608.0</v>
-      </c>
-      <c r="F19" s="9">
-        <v>5969.0</v>
-      </c>
-      <c r="G19" s="11">
-        <v>3898.0</v>
+      <c r="C19" s="15">
+        <v>3446.0</v>
+      </c>
+      <c r="D19" s="15">
+        <v>11879.0</v>
+      </c>
+      <c r="E19" s="15">
+        <v>15025.0</v>
+      </c>
+      <c r="F19" s="15">
+        <v>8708.0</v>
+      </c>
+      <c r="G19" s="16">
+        <v>6099.0</v>
       </c>
     </row>
     <row r="20">
@@ -639,18 +717,42 @@
         <v>3</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="G20" s="12"/>
+      <c r="C20" s="9">
+        <v>10458.0</v>
+      </c>
+      <c r="D20" s="9">
+        <v>11469.0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>12431.0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>12871.0</v>
+      </c>
+      <c r="G20" s="16">
+        <v>11437.0</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13">
+        <v>9292.0</v>
+      </c>
+      <c r="D21" s="13">
+        <v>10587.0</v>
+      </c>
+      <c r="E21" s="13">
+        <v>12183.0</v>
+      </c>
+      <c r="F21" s="13">
+        <v>12503.0</v>
+      </c>
+      <c r="G21" s="14">
+        <v>9968.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/OIM-Tables.xlsx
+++ b/OIM-Tables.xlsx
@@ -11,14 +11,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>POMOŽNE TABELE</t>
   </si>
   <si>
+    <t>DUPONT KAZALCI</t>
+  </si>
+  <si>
     <t>VSA SREDSTVA ($m)</t>
   </si>
   <si>
+    <t>ROA</t>
+  </si>
+  <si>
     <t>HSBC</t>
   </si>
   <si>
@@ -31,10 +37,22 @@
     <t>KAPITAL ($m)</t>
   </si>
   <si>
+    <t>DOBIČKOVNOST PRIHODKOV</t>
+  </si>
+  <si>
     <t>PRIHODKI</t>
   </si>
   <si>
+    <t>OBRAT SREDSTEV</t>
+  </si>
+  <si>
     <t>DOBIČEK</t>
+  </si>
+  <si>
+    <t>MULITPLIKATOR KAPITALA</t>
+  </si>
+  <si>
+    <t>ROE</t>
   </si>
 </sst>
 </file>
@@ -152,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -160,6 +178,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -170,13 +191,13 @@
     <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -190,6 +211,13 @@
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -417,341 +445,807 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6">
         <v>2016.0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>2017.0</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>2018.0</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>2019.0</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <v>2020.0</v>
       </c>
+      <c r="I3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6">
+        <v>2016.0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>2017.0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>2018.0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>2019.0</v>
+      </c>
+      <c r="O3" s="7">
+        <v>2020.0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9">
+      <c r="A4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="3">
         <v>2374986.0</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="3">
         <v>2521771.0</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="3">
         <v>2558124.0</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="3">
         <v>2715152.0</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="11">
         <v>2984164.0</v>
       </c>
+      <c r="I4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="3">
+        <f t="shared" ref="K4:O4" si="1">C19/C4</f>
+        <v>0.001450955921</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.004710578399</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.005873444759</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.003207186927</v>
+      </c>
+      <c r="O4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.002043788478</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9">
+      <c r="A5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="3">
         <v>1180258.0</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="3">
         <v>1212853.0</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="3">
         <v>1334734.0</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="3">
         <v>1428935.0</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="11">
         <v>1624548.0</v>
       </c>
+      <c r="I5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="3">
+        <f t="shared" ref="K5:O5" si="2">C20/C5</f>
+        <v>0.008860774509</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.009456216046</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.009313466204</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.009007407615</v>
+      </c>
+      <c r="O5" s="11">
+        <f t="shared" si="2"/>
+        <v>0.00704011208</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14">
+        <v>1176967.0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1278995.0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1334903.0</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1415290.0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1715865.0</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="16">
+        <f t="shared" ref="K6:O6" si="3">C21/C6</f>
+        <v>0.00789486876</v>
+      </c>
+      <c r="L6" s="16">
+        <f t="shared" si="3"/>
+        <v>0.008277592954</v>
+      </c>
+      <c r="M6" s="16">
+        <f t="shared" si="3"/>
+        <v>0.009126505821</v>
+      </c>
+      <c r="N6" s="16">
+        <f t="shared" si="3"/>
+        <v>0.008834231854</v>
+      </c>
+      <c r="O6" s="17">
+        <f t="shared" si="3"/>
+        <v>0.005809314835</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6">
+        <v>2016.0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2017.0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2018.0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2019.0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2020.0</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6">
+        <v>2016.0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>2017.0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>2018.0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>2019.0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13">
-        <v>1176967.0</v>
-      </c>
-      <c r="D6" s="13">
-        <v>1278995.0</v>
-      </c>
-      <c r="E6" s="13">
-        <v>1334903.0</v>
-      </c>
-      <c r="F6" s="13">
-        <v>1415290.0</v>
-      </c>
-      <c r="G6" s="14">
-        <v>1715865.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="3">
+        <v>175386.0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>190250.0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>186253.0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>183955.0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>196443.0</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="3">
+        <f t="shared" ref="K9:O9" si="4">C19/C14</f>
+        <v>0.07732352017</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="4"/>
+        <v>0.2391295595</v>
+      </c>
+      <c r="M9" s="18">
+        <f t="shared" si="4"/>
+        <v>0.2888700902</v>
+      </c>
+      <c r="N9" s="18">
+        <f t="shared" si="4"/>
+        <v>0.1632484721</v>
+      </c>
+      <c r="O9" s="11">
+        <f t="shared" si="4"/>
+        <v>0.1465682976</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5">
+      <c r="B10" s="10"/>
+      <c r="C10" s="3">
+        <v>71017.0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>73829.0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>79861.0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>83523.0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>86664.0</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="18">
+        <f t="shared" ref="K10:O10" si="5">C20/C15</f>
+        <v>0.2723082932</v>
+      </c>
+      <c r="L10" s="18">
+        <f t="shared" si="5"/>
+        <v>0.2820084094</v>
+      </c>
+      <c r="M10" s="18">
+        <f t="shared" si="5"/>
+        <v>0.291972003</v>
+      </c>
+      <c r="N10" s="18">
+        <f t="shared" si="5"/>
+        <v>0.2797921829</v>
+      </c>
+      <c r="O10" s="11">
+        <f t="shared" si="5"/>
+        <v>0.2424069011</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14">
+        <v>74214.0</v>
+      </c>
+      <c r="D11" s="14">
+        <v>75190.0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>80040.0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>87701.0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>95499.0</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="16">
+        <f t="shared" ref="K11:O11" si="6">C21/C16</f>
+        <v>0.2708406203</v>
+      </c>
+      <c r="L11" s="16">
+        <f t="shared" si="6"/>
+        <v>0.294525121</v>
+      </c>
+      <c r="M11" s="16">
+        <f t="shared" si="6"/>
+        <v>0.3125368769</v>
+      </c>
+      <c r="N11" s="16">
+        <f t="shared" si="6"/>
+        <v>0.3044685255</v>
+      </c>
+      <c r="O11" s="17">
+        <f t="shared" si="6"/>
+        <v>0.2360686797</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6">
         <v>2016.0</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D13" s="6">
         <v>2017.0</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E13" s="6">
         <v>2018.0</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F13" s="6">
         <v>2019.0</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G13" s="7">
         <v>2020.0</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9">
-        <v>175386.0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>190250.0</v>
-      </c>
-      <c r="E9" s="9">
-        <v>186253.0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>183955.0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>196443.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9">
-        <v>71017.0</v>
-      </c>
-      <c r="D10" s="9">
-        <v>73829.0</v>
-      </c>
-      <c r="E10" s="9">
-        <v>79861.0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>83523.0</v>
-      </c>
-      <c r="G10" s="10">
-        <v>86664.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="I13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6">
+        <v>2016.0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>2017.0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>2018.0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>2019.0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13">
-        <v>74214.0</v>
-      </c>
-      <c r="D11" s="13">
-        <v>75190.0</v>
-      </c>
-      <c r="E11" s="13">
-        <v>80040.0</v>
-      </c>
-      <c r="F11" s="13">
-        <v>87701.0</v>
-      </c>
-      <c r="G11" s="14">
-        <v>95499.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="19">
+        <v>44566.0</v>
+      </c>
+      <c r="D14" s="19">
+        <v>49676.0</v>
+      </c>
+      <c r="E14" s="19">
+        <v>52013.0</v>
+      </c>
+      <c r="F14" s="19">
+        <v>53342.0</v>
+      </c>
+      <c r="G14" s="20">
+        <v>41612.0</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="18">
+        <f t="shared" ref="K14:O14" si="7">C14/C4</f>
+        <v>0.01876474219</v>
+      </c>
+      <c r="L14" s="18">
+        <f t="shared" si="7"/>
+        <v>0.0196988545</v>
+      </c>
+      <c r="M14" s="18">
+        <f t="shared" si="7"/>
+        <v>0.02033247802</v>
+      </c>
+      <c r="N14" s="18">
+        <f t="shared" si="7"/>
+        <v>0.0196460456</v>
+      </c>
+      <c r="O14" s="11">
+        <f t="shared" si="7"/>
+        <v>0.01394427384</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="3">
+        <v>38405.0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>40669.0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>42576.0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>46002.0</v>
+      </c>
+      <c r="G15" s="20">
+        <v>47181.0</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="18">
+        <f t="shared" ref="K15:O15" si="8">C15/C5</f>
+        <v>0.0325394956</v>
+      </c>
+      <c r="L15" s="18">
+        <f t="shared" si="8"/>
+        <v>0.03353168109</v>
+      </c>
+      <c r="M15" s="18">
+        <f t="shared" si="8"/>
+        <v>0.03189849064</v>
+      </c>
+      <c r="N15" s="18">
+        <f t="shared" si="8"/>
+        <v>0.03219320683</v>
+      </c>
+      <c r="O15" s="11">
+        <f t="shared" si="8"/>
+        <v>0.02904253983</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14">
+        <v>34308.0</v>
+      </c>
+      <c r="D16" s="14">
+        <v>35946.0</v>
+      </c>
+      <c r="E16" s="14">
+        <v>38981.0</v>
+      </c>
+      <c r="F16" s="14">
+        <v>41065.0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>42225.0</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="16">
+        <f t="shared" ref="K16:O16" si="9">C16/C6</f>
+        <v>0.02914950037</v>
+      </c>
+      <c r="L16" s="16">
+        <f t="shared" si="9"/>
+        <v>0.02810487922</v>
+      </c>
+      <c r="M16" s="16">
+        <f t="shared" si="9"/>
+        <v>0.02920137268</v>
+      </c>
+      <c r="N16" s="16">
+        <f t="shared" si="9"/>
+        <v>0.02901525482</v>
+      </c>
+      <c r="O16" s="17">
+        <f t="shared" si="9"/>
+        <v>0.02460857935</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6">
         <v>2016.0</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D18" s="6">
         <v>2017.0</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E18" s="6">
         <v>2018.0</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F18" s="6">
         <v>2019.0</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G18" s="7">
         <v>2020.0</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="15">
-        <v>44566.0</v>
-      </c>
-      <c r="D14" s="15">
-        <v>49676.0</v>
-      </c>
-      <c r="E14" s="15">
-        <v>52013.0</v>
-      </c>
-      <c r="F14" s="15">
-        <v>53342.0</v>
-      </c>
-      <c r="G14" s="16">
-        <v>41612.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9">
-        <v>38405.0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>40669.0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>42576.0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>46002.0</v>
-      </c>
-      <c r="G15" s="16">
-        <v>47181.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="s">
+      <c r="I18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6">
+        <v>2016.0</v>
+      </c>
+      <c r="L18" s="6">
+        <v>2017.0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>2018.0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>2019.0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13">
-        <v>34308.0</v>
-      </c>
-      <c r="D16" s="13">
-        <v>35946.0</v>
-      </c>
-      <c r="E16" s="13">
-        <v>38981.0</v>
-      </c>
-      <c r="F16" s="13">
-        <v>41065.0</v>
-      </c>
-      <c r="G16" s="14">
-        <v>42225.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5">
+      <c r="B19" s="10"/>
+      <c r="C19" s="19">
+        <v>3446.0</v>
+      </c>
+      <c r="D19" s="19">
+        <v>11879.0</v>
+      </c>
+      <c r="E19" s="19">
+        <v>15025.0</v>
+      </c>
+      <c r="F19" s="19">
+        <v>8708.0</v>
+      </c>
+      <c r="G19" s="20">
+        <v>6099.0</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="18">
+        <f t="shared" ref="K19:O19" si="10">C4/C9</f>
+        <v>13.54147994</v>
+      </c>
+      <c r="L19" s="18">
+        <f t="shared" si="10"/>
+        <v>13.25503811</v>
+      </c>
+      <c r="M19" s="18">
+        <f t="shared" si="10"/>
+        <v>13.73467273</v>
+      </c>
+      <c r="N19" s="18">
+        <f t="shared" si="10"/>
+        <v>14.75987062</v>
+      </c>
+      <c r="O19" s="11">
+        <f t="shared" si="10"/>
+        <v>15.19099179</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="3">
+        <v>10458.0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>11469.0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>12431.0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>12871.0</v>
+      </c>
+      <c r="G20" s="20">
+        <v>11437.0</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="18">
+        <f t="shared" ref="K20:O20" si="11">C5/C10</f>
+        <v>16.61937283</v>
+      </c>
+      <c r="L20" s="18">
+        <f t="shared" si="11"/>
+        <v>16.4278671</v>
+      </c>
+      <c r="M20" s="18">
+        <f t="shared" si="11"/>
+        <v>16.71321421</v>
+      </c>
+      <c r="N20" s="18">
+        <f t="shared" si="11"/>
+        <v>17.10828155</v>
+      </c>
+      <c r="O20" s="11">
+        <f t="shared" si="11"/>
+        <v>18.7453614</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14">
+        <v>9292.0</v>
+      </c>
+      <c r="D21" s="14">
+        <v>10587.0</v>
+      </c>
+      <c r="E21" s="14">
+        <v>12183.0</v>
+      </c>
+      <c r="F21" s="14">
+        <v>12503.0</v>
+      </c>
+      <c r="G21" s="15">
+        <v>9968.0</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="16">
+        <f t="shared" ref="K21:O21" si="12">C6/C11</f>
+        <v>15.85909667</v>
+      </c>
+      <c r="L21" s="16">
+        <f t="shared" si="12"/>
+        <v>17.01017423</v>
+      </c>
+      <c r="M21" s="16">
+        <f t="shared" si="12"/>
+        <v>16.67794853</v>
+      </c>
+      <c r="N21" s="16">
+        <f t="shared" si="12"/>
+        <v>16.13767232</v>
+      </c>
+      <c r="O21" s="17">
+        <f t="shared" si="12"/>
+        <v>17.96736091</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="I23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="6">
         <v>2016.0</v>
       </c>
-      <c r="D18" s="5">
+      <c r="L23" s="6">
         <v>2017.0</v>
       </c>
-      <c r="E18" s="5">
+      <c r="M23" s="6">
         <v>2018.0</v>
       </c>
-      <c r="F18" s="5">
+      <c r="N23" s="6">
         <v>2019.0</v>
       </c>
-      <c r="G18" s="6">
+      <c r="O23" s="7">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="15">
-        <v>3446.0</v>
-      </c>
-      <c r="D19" s="15">
-        <v>11879.0</v>
-      </c>
-      <c r="E19" s="15">
-        <v>15025.0</v>
-      </c>
-      <c r="F19" s="15">
-        <v>8708.0</v>
-      </c>
-      <c r="G19" s="16">
-        <v>6099.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9">
-        <v>10458.0</v>
-      </c>
-      <c r="D20" s="9">
-        <v>11469.0</v>
-      </c>
-      <c r="E20" s="9">
-        <v>12431.0</v>
-      </c>
-      <c r="F20" s="9">
-        <v>12871.0</v>
-      </c>
-      <c r="G20" s="16">
-        <v>11437.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="s">
+    <row r="24">
+      <c r="I24" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13">
-        <v>9292.0</v>
-      </c>
-      <c r="D21" s="13">
-        <v>10587.0</v>
-      </c>
-      <c r="E21" s="13">
-        <v>12183.0</v>
-      </c>
-      <c r="F21" s="13">
-        <v>12503.0</v>
-      </c>
-      <c r="G21" s="14">
-        <v>9968.0</v>
+      <c r="J24" s="10"/>
+      <c r="K24" s="3">
+        <f t="shared" ref="K24:O24" si="13">K9*K14*K19</f>
+        <v>0.0196480905</v>
+      </c>
+      <c r="L24" s="18">
+        <f t="shared" si="13"/>
+        <v>0.06243889619</v>
+      </c>
+      <c r="M24" s="18">
+        <f t="shared" si="13"/>
+        <v>0.08066984156</v>
+      </c>
+      <c r="N24" s="18">
+        <f t="shared" si="13"/>
+        <v>0.0473376641</v>
+      </c>
+      <c r="O24" s="11">
+        <f t="shared" si="13"/>
+        <v>0.03104717399</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="I25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="10"/>
+      <c r="K25" s="18">
+        <f t="shared" ref="K25:O25" si="14">K10*K15*K20</f>
+        <v>0.1472605151</v>
+      </c>
+      <c r="L25" s="18">
+        <f t="shared" si="14"/>
+        <v>0.1553454605</v>
+      </c>
+      <c r="M25" s="18">
+        <f t="shared" si="14"/>
+        <v>0.1556579557</v>
+      </c>
+      <c r="N25" s="18">
+        <f t="shared" si="14"/>
+        <v>0.1541012655</v>
+      </c>
+      <c r="O25" s="11">
+        <f t="shared" si="14"/>
+        <v>0.1319694452</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="I26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="16">
+        <f t="shared" ref="K26:O26" si="15">K11*K16*K21</f>
+        <v>0.1252054868</v>
+      </c>
+      <c r="L26" s="16">
+        <f t="shared" si="15"/>
+        <v>0.1408032983</v>
+      </c>
+      <c r="M26" s="16">
+        <f t="shared" si="15"/>
+        <v>0.1522113943</v>
+      </c>
+      <c r="N26" s="16">
+        <f t="shared" si="15"/>
+        <v>0.1425639388</v>
+      </c>
+      <c r="O26" s="17">
+        <f t="shared" si="15"/>
+        <v>0.1043780563</v>
       </c>
     </row>
   </sheetData>

--- a/OIM-Tables.xlsx
+++ b/OIM-Tables.xlsx
@@ -1,17 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joresg\faks\predmeti\drugi_semester\oim\OIM_seminarska\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AB7F14-A753-42FC-970E-6B312824F41F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="List1" sheetId="1" r:id="rId4"/>
+    <sheet name="PomozneTabele" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>POMOŽNE TABELE</t>
   </si>
@@ -54,29 +74,42 @@
   <si>
     <t>ROE</t>
   </si>
+  <si>
+    <t>AVG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -104,19 +137,28 @@
     </fill>
   </fills>
   <borders count="9">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -126,118 +168,1313 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sl-SI"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SI"/>
+              <a:t>ROE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PomozneTabele!$I$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HSBC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PomozneTabele!$J$23:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PomozneTabele!$J$24:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>1.9648090497531159E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2438896189224706E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.066984155959904E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7337664102633799E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1047173989401509E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F5F-4170-9092-853B49628BD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PomozneTabele!$I$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ROYAL BANK OF CANADA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PomozneTabele!$J$23:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PomozneTabele!$J$25:$O$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>0.14726051508793672</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15534546045591843</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15565795569802532</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15410126551967721</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13196944521369885</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3F5F-4170-9092-853B49628BD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PomozneTabele!$I$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TORONTO DOMINION BANK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PomozneTabele!$J$23:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PomozneTabele!$J$26:$O$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>0.12520548683536797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1408032983109456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15221139430284858</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14256393883764151</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10437805631472581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3F5F-4170-9092-853B49628BD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PomozneTabele!$I$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PomozneTabele!$J$23:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PomozneTabele!$J$27:$O$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>9.7371364140278624E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11952921831869624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12951306385349098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11466762281998417</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9131558505942066E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3F5F-4170-9092-853B49628BD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2085176463"/>
+        <c:axId val="2085175631"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2085176463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2085175631"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2085175631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2085176463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafikon 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D59347-07FC-40F3-B4BB-998A50040079}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -427,20 +1664,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,806 +1691,834 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="6">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="D3" s="6">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E3" s="6">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="F3" s="6">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="G3" s="7">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="6">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="L3" s="6">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="M3" s="6">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="N3" s="6">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="O3" s="7">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="3">
-        <v>2374986.0</v>
+        <v>2374986</v>
       </c>
       <c r="D4" s="3">
-        <v>2521771.0</v>
+        <v>2521771</v>
       </c>
       <c r="E4" s="3">
-        <v>2558124.0</v>
+        <v>2558124</v>
       </c>
       <c r="F4" s="3">
-        <v>2715152.0</v>
+        <v>2715152</v>
       </c>
       <c r="G4" s="11">
-        <v>2984164.0</v>
+        <v>2984164</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="3">
-        <f t="shared" ref="K4:O4" si="1">C19/C4</f>
-        <v>0.001450955921</v>
+        <f>C19/C4</f>
+        <v>1.4509559214243789E-3</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" si="1"/>
-        <v>0.004710578399</v>
+        <f>D19/D4</f>
+        <v>4.710578399069543E-3</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" si="1"/>
-        <v>0.005873444759</v>
+        <f>E19/E4</f>
+        <v>5.8734447587372625E-3</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" si="1"/>
-        <v>0.003207186927</v>
+        <f>F19/F4</f>
+        <v>3.2071869272880488E-3</v>
       </c>
       <c r="O4" s="11">
-        <f t="shared" si="1"/>
-        <v>0.002043788478</v>
+        <f>G19/G4</f>
+        <v>2.0437884781131332E-3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="3">
-        <v>1180258.0</v>
+        <v>1180258</v>
       </c>
       <c r="D5" s="3">
-        <v>1212853.0</v>
+        <v>1212853</v>
       </c>
       <c r="E5" s="3">
-        <v>1334734.0</v>
+        <v>1334734</v>
       </c>
       <c r="F5" s="3">
-        <v>1428935.0</v>
+        <v>1428935</v>
       </c>
       <c r="G5" s="11">
-        <v>1624548.0</v>
+        <v>1624548</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="3">
-        <f t="shared" ref="K5:O5" si="2">C20/C5</f>
-        <v>0.008860774509</v>
+        <f>C20/C5</f>
+        <v>8.8607745086243857E-3</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="2"/>
-        <v>0.009456216046</v>
+        <f>D20/D5</f>
+        <v>9.456216045967648E-3</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="2"/>
-        <v>0.009313466204</v>
+        <f>E20/E5</f>
+        <v>9.3134662037529584E-3</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" si="2"/>
-        <v>0.009007407615</v>
+        <f>F20/F5</f>
+        <v>9.0074076147620436E-3</v>
       </c>
       <c r="O5" s="11">
-        <f t="shared" si="2"/>
-        <v>0.00704011208</v>
+        <f>G20/G5</f>
+        <v>7.040112080406365E-3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14">
-        <v>1176967.0</v>
+        <v>1176967</v>
       </c>
       <c r="D6" s="14">
-        <v>1278995.0</v>
+        <v>1278995</v>
       </c>
       <c r="E6" s="14">
-        <v>1334903.0</v>
+        <v>1334903</v>
       </c>
       <c r="F6" s="14">
-        <v>1415290.0</v>
+        <v>1415290</v>
       </c>
       <c r="G6" s="15">
-        <v>1715865.0</v>
+        <v>1715865</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="16">
-        <f t="shared" ref="K6:O6" si="3">C21/C6</f>
-        <v>0.00789486876</v>
+        <f>C21/C6</f>
+        <v>7.8948687601266641E-3</v>
       </c>
       <c r="L6" s="16">
-        <f t="shared" si="3"/>
-        <v>0.008277592954</v>
+        <f>D21/D6</f>
+        <v>8.2775929538426649E-3</v>
       </c>
       <c r="M6" s="16">
-        <f t="shared" si="3"/>
-        <v>0.009126505821</v>
+        <f>E21/E6</f>
+        <v>9.1265058210222016E-3</v>
       </c>
       <c r="N6" s="16">
-        <f t="shared" si="3"/>
-        <v>0.008834231854</v>
+        <f>F21/F6</f>
+        <v>8.834231853542384E-3</v>
       </c>
       <c r="O6" s="17">
-        <f t="shared" si="3"/>
-        <v>0.005809314835</v>
+        <f>G21/G6</f>
+        <v>5.809314835374578E-3</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="D8" s="6">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E8" s="6">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="F8" s="6">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="G8" s="7">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="6">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="L8" s="6">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="M8" s="6">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="N8" s="6">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="O8" s="7">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="3">
-        <v>175386.0</v>
+        <v>175386</v>
       </c>
       <c r="D9" s="3">
-        <v>190250.0</v>
+        <v>190250</v>
       </c>
       <c r="E9" s="3">
-        <v>186253.0</v>
+        <v>186253</v>
       </c>
       <c r="F9" s="3">
-        <v>183955.0</v>
+        <v>183955</v>
       </c>
       <c r="G9" s="11">
-        <v>196443.0</v>
+        <v>196443</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>4</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="3">
-        <f t="shared" ref="K9:O9" si="4">C19/C14</f>
-        <v>0.07732352017</v>
+        <f>C19/C14</f>
+        <v>7.7323520172328686E-2</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="4"/>
-        <v>0.2391295595</v>
+        <f>D19/D14</f>
+        <v>0.23912955954585716</v>
       </c>
       <c r="M9" s="18">
-        <f t="shared" si="4"/>
-        <v>0.2888700902</v>
+        <f>E19/E14</f>
+        <v>0.28887009016976523</v>
       </c>
       <c r="N9" s="18">
-        <f t="shared" si="4"/>
-        <v>0.1632484721</v>
+        <f>F19/F14</f>
+        <v>0.16324847212327998</v>
       </c>
       <c r="O9" s="11">
-        <f t="shared" si="4"/>
-        <v>0.1465682976</v>
+        <f>G19/G14</f>
+        <v>0.14656829760645967</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="3">
-        <v>71017.0</v>
+        <v>71017</v>
       </c>
       <c r="D10" s="3">
-        <v>73829.0</v>
+        <v>73829</v>
       </c>
       <c r="E10" s="3">
-        <v>79861.0</v>
+        <v>79861</v>
       </c>
       <c r="F10" s="3">
-        <v>83523.0</v>
+        <v>83523</v>
       </c>
       <c r="G10" s="11">
-        <v>86664.0</v>
+        <v>86664</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="18">
-        <f t="shared" ref="K10:O10" si="5">C20/C15</f>
-        <v>0.2723082932</v>
+        <f>C20/C15</f>
+        <v>0.27230829319099076</v>
       </c>
       <c r="L10" s="18">
-        <f t="shared" si="5"/>
-        <v>0.2820084094</v>
+        <f>D20/D15</f>
+        <v>0.2820084093535617</v>
       </c>
       <c r="M10" s="18">
-        <f t="shared" si="5"/>
-        <v>0.291972003</v>
+        <f>E20/E15</f>
+        <v>0.29197200300638859</v>
       </c>
       <c r="N10" s="18">
-        <f t="shared" si="5"/>
-        <v>0.2797921829</v>
+        <f>F20/F15</f>
+        <v>0.27979218294856745</v>
       </c>
       <c r="O10" s="11">
-        <f t="shared" si="5"/>
-        <v>0.2424069011</v>
+        <f>G20/G15</f>
+        <v>0.24240690108306309</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14">
-        <v>74214.0</v>
+        <v>74214</v>
       </c>
       <c r="D11" s="14">
-        <v>75190.0</v>
+        <v>75190</v>
       </c>
       <c r="E11" s="14">
-        <v>80040.0</v>
+        <v>80040</v>
       </c>
       <c r="F11" s="14">
-        <v>87701.0</v>
+        <v>87701</v>
       </c>
       <c r="G11" s="15">
-        <v>95499.0</v>
+        <v>95499</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="16">
-        <f t="shared" ref="K11:O11" si="6">C21/C16</f>
-        <v>0.2708406203</v>
+        <f>C21/C16</f>
+        <v>0.27084062026349537</v>
       </c>
       <c r="L11" s="16">
-        <f t="shared" si="6"/>
-        <v>0.294525121</v>
+        <f>D21/D16</f>
+        <v>0.29452512101485562</v>
       </c>
       <c r="M11" s="16">
-        <f t="shared" si="6"/>
-        <v>0.3125368769</v>
+        <f>E21/E16</f>
+        <v>0.31253687694004773</v>
       </c>
       <c r="N11" s="16">
-        <f t="shared" si="6"/>
-        <v>0.3044685255</v>
+        <f>F21/F16</f>
+        <v>0.30446852550834042</v>
       </c>
       <c r="O11" s="17">
-        <f t="shared" si="6"/>
-        <v>0.2360686797</v>
+        <f>G21/G16</f>
+        <v>0.23606867969212553</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="D13" s="6">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E13" s="6">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="F13" s="6">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="G13" s="7">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="6">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="L13" s="6">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="M13" s="6">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="N13" s="6">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="O13" s="7">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="19">
-        <v>44566.0</v>
+        <v>44566</v>
       </c>
       <c r="D14" s="19">
-        <v>49676.0</v>
+        <v>49676</v>
       </c>
       <c r="E14" s="19">
-        <v>52013.0</v>
+        <v>52013</v>
       </c>
       <c r="F14" s="19">
-        <v>53342.0</v>
+        <v>53342</v>
       </c>
       <c r="G14" s="20">
-        <v>41612.0</v>
+        <v>41612</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="18">
-        <f t="shared" ref="K14:O14" si="7">C14/C4</f>
-        <v>0.01876474219</v>
+        <f>C14/C4</f>
+        <v>1.8764742192164501E-2</v>
       </c>
       <c r="L14" s="18">
-        <f t="shared" si="7"/>
-        <v>0.0196988545</v>
+        <f>D14/D4</f>
+        <v>1.969885449551129E-2</v>
       </c>
       <c r="M14" s="18">
-        <f t="shared" si="7"/>
-        <v>0.02033247802</v>
+        <f>E14/E4</f>
+        <v>2.0332478019048333E-2</v>
       </c>
       <c r="N14" s="18">
-        <f t="shared" si="7"/>
-        <v>0.0196460456</v>
+        <f>F14/F4</f>
+        <v>1.9646045598920428E-2</v>
       </c>
       <c r="O14" s="11">
-        <f t="shared" si="7"/>
-        <v>0.01394427384</v>
+        <f>G14/G4</f>
+        <v>1.3944273840177684E-2</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="3">
-        <v>38405.0</v>
+        <v>38405</v>
       </c>
       <c r="D15" s="3">
-        <v>40669.0</v>
+        <v>40669</v>
       </c>
       <c r="E15" s="3">
-        <v>42576.0</v>
+        <v>42576</v>
       </c>
       <c r="F15" s="3">
-        <v>46002.0</v>
+        <v>46002</v>
       </c>
       <c r="G15" s="20">
-        <v>47181.0</v>
+        <v>47181</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="18">
-        <f t="shared" ref="K15:O15" si="8">C15/C5</f>
-        <v>0.0325394956</v>
+        <f>C15/C5</f>
+        <v>3.2539495601809097E-2</v>
       </c>
       <c r="L15" s="18">
-        <f t="shared" si="8"/>
-        <v>0.03353168109</v>
+        <f>D15/D5</f>
+        <v>3.3531681085836457E-2</v>
       </c>
       <c r="M15" s="18">
-        <f t="shared" si="8"/>
-        <v>0.03189849064</v>
+        <f>E15/E5</f>
+        <v>3.1898490635587314E-2</v>
       </c>
       <c r="N15" s="18">
-        <f t="shared" si="8"/>
-        <v>0.03219320683</v>
+        <f>F15/F5</f>
+        <v>3.2193206828862057E-2</v>
       </c>
       <c r="O15" s="11">
-        <f t="shared" si="8"/>
-        <v>0.02904253983</v>
+        <f>G15/G5</f>
+        <v>2.9042539832618057E-2</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="14">
-        <v>34308.0</v>
+        <v>34308</v>
       </c>
       <c r="D16" s="14">
-        <v>35946.0</v>
+        <v>35946</v>
       </c>
       <c r="E16" s="14">
-        <v>38981.0</v>
+        <v>38981</v>
       </c>
       <c r="F16" s="14">
-        <v>41065.0</v>
+        <v>41065</v>
       </c>
       <c r="G16" s="15">
-        <v>42225.0</v>
+        <v>42225</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="16">
-        <f t="shared" ref="K16:O16" si="9">C16/C6</f>
-        <v>0.02914950037</v>
+        <f>C16/C6</f>
+        <v>2.9149500368319588E-2</v>
       </c>
       <c r="L16" s="16">
-        <f t="shared" si="9"/>
-        <v>0.02810487922</v>
+        <f>D16/D6</f>
+        <v>2.8104879221576316E-2</v>
       </c>
       <c r="M16" s="16">
-        <f t="shared" si="9"/>
-        <v>0.02920137268</v>
+        <f>E16/E6</f>
+        <v>2.9201372684007753E-2</v>
       </c>
       <c r="N16" s="16">
-        <f t="shared" si="9"/>
-        <v>0.02901525482</v>
+        <f>F16/F6</f>
+        <v>2.9015254824099654E-2</v>
       </c>
       <c r="O16" s="17">
-        <f t="shared" si="9"/>
-        <v>0.02460857935</v>
+        <f>G16/G6</f>
+        <v>2.4608579346277241E-2</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="D18" s="6">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E18" s="6">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="F18" s="6">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="G18" s="7">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>12</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="6">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="L18" s="6">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="M18" s="6">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="N18" s="6">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="O18" s="7">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="19">
-        <v>3446.0</v>
+        <v>3446</v>
       </c>
       <c r="D19" s="19">
-        <v>11879.0</v>
+        <v>11879</v>
       </c>
       <c r="E19" s="19">
-        <v>15025.0</v>
+        <v>15025</v>
       </c>
       <c r="F19" s="19">
-        <v>8708.0</v>
+        <v>8708</v>
       </c>
       <c r="G19" s="20">
-        <v>6099.0</v>
+        <v>6099</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>4</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="18">
-        <f t="shared" ref="K19:O19" si="10">C4/C9</f>
-        <v>13.54147994</v>
+        <f>C4/C9</f>
+        <v>13.541479935684718</v>
       </c>
       <c r="L19" s="18">
-        <f t="shared" si="10"/>
-        <v>13.25503811</v>
+        <f>D4/D9</f>
+        <v>13.255038107752956</v>
       </c>
       <c r="M19" s="18">
-        <f t="shared" si="10"/>
-        <v>13.73467273</v>
+        <f>E4/E9</f>
+        <v>13.734672730103677</v>
       </c>
       <c r="N19" s="18">
-        <f t="shared" si="10"/>
-        <v>14.75987062</v>
+        <f>F4/F9</f>
+        <v>14.759870620532196</v>
       </c>
       <c r="O19" s="11">
-        <f t="shared" si="10"/>
-        <v>15.19099179</v>
+        <f>G4/G9</f>
+        <v>15.190991788966775</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="3">
-        <v>10458.0</v>
+        <v>10458</v>
       </c>
       <c r="D20" s="3">
-        <v>11469.0</v>
+        <v>11469</v>
       </c>
       <c r="E20" s="3">
-        <v>12431.0</v>
+        <v>12431</v>
       </c>
       <c r="F20" s="3">
-        <v>12871.0</v>
+        <v>12871</v>
       </c>
       <c r="G20" s="20">
-        <v>11437.0</v>
+        <v>11437</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>5</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="18">
-        <f t="shared" ref="K20:O20" si="11">C5/C10</f>
-        <v>16.61937283</v>
+        <f>C5/C10</f>
+        <v>16.619372826224708</v>
       </c>
       <c r="L20" s="18">
-        <f t="shared" si="11"/>
-        <v>16.4278671</v>
+        <f>D5/D10</f>
+        <v>16.427867098294708</v>
       </c>
       <c r="M20" s="18">
-        <f t="shared" si="11"/>
-        <v>16.71321421</v>
+        <f>E5/E10</f>
+        <v>16.713214209689337</v>
       </c>
       <c r="N20" s="18">
-        <f t="shared" si="11"/>
-        <v>17.10828155</v>
+        <f>F5/F10</f>
+        <v>17.108281551189492</v>
       </c>
       <c r="O20" s="11">
-        <f t="shared" si="11"/>
-        <v>18.7453614</v>
+        <f>G5/G10</f>
+        <v>18.745361395735252</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="14">
-        <v>9292.0</v>
+        <v>9292</v>
       </c>
       <c r="D21" s="14">
-        <v>10587.0</v>
+        <v>10587</v>
       </c>
       <c r="E21" s="14">
-        <v>12183.0</v>
+        <v>12183</v>
       </c>
       <c r="F21" s="14">
-        <v>12503.0</v>
+        <v>12503</v>
       </c>
       <c r="G21" s="15">
-        <v>9968.0</v>
+        <v>9968</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="16">
-        <f t="shared" ref="K21:O21" si="12">C6/C11</f>
-        <v>15.85909667</v>
+        <f>C6/C11</f>
+        <v>15.859096666397175</v>
       </c>
       <c r="L21" s="16">
-        <f t="shared" si="12"/>
-        <v>17.01017423</v>
+        <f>D6/D11</f>
+        <v>17.010174225295916</v>
       </c>
       <c r="M21" s="16">
-        <f t="shared" si="12"/>
-        <v>16.67794853</v>
+        <f>E6/E11</f>
+        <v>16.677948525737133</v>
       </c>
       <c r="N21" s="16">
-        <f t="shared" si="12"/>
-        <v>16.13767232</v>
+        <f>F6/F11</f>
+        <v>16.137672318445627</v>
       </c>
       <c r="O21" s="17">
-        <f t="shared" si="12"/>
-        <v>17.96736091</v>
+        <f>G6/G11</f>
+        <v>17.967360914773977</v>
       </c>
     </row>
-    <row r="23">
-      <c r="I23" s="8" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I23" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="6">
-        <v>2016.0</v>
-      </c>
-      <c r="L23" s="6">
-        <v>2017.0</v>
-      </c>
-      <c r="M23" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="N23" s="6">
-        <v>2019.0</v>
-      </c>
-      <c r="O23" s="7">
-        <v>2020.0</v>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26">
+        <v>2016</v>
+      </c>
+      <c r="L23" s="26">
+        <v>2017</v>
+      </c>
+      <c r="M23" s="26">
+        <v>2018</v>
+      </c>
+      <c r="N23" s="26">
+        <v>2019</v>
+      </c>
+      <c r="O23" s="26">
+        <v>2020</v>
       </c>
     </row>
-    <row r="24">
-      <c r="I24" s="9" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I24" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="3">
-        <f t="shared" ref="K24:O24" si="13">K9*K14*K19</f>
-        <v>0.0196480905</v>
-      </c>
-      <c r="L24" s="18">
-        <f t="shared" si="13"/>
-        <v>0.06243889619</v>
-      </c>
-      <c r="M24" s="18">
-        <f t="shared" si="13"/>
-        <v>0.08066984156</v>
-      </c>
-      <c r="N24" s="18">
-        <f t="shared" si="13"/>
-        <v>0.0473376641</v>
-      </c>
-      <c r="O24" s="11">
-        <f t="shared" si="13"/>
-        <v>0.03104717399</v>
+      <c r="J24" s="22"/>
+      <c r="K24" s="23">
+        <f t="shared" ref="K24:O24" si="0">K9*K14*K19</f>
+        <v>1.9648090497531159E-2</v>
+      </c>
+      <c r="L24" s="27">
+        <f t="shared" si="0"/>
+        <v>6.2438896189224706E-2</v>
+      </c>
+      <c r="M24" s="27">
+        <f t="shared" si="0"/>
+        <v>8.066984155959904E-2</v>
+      </c>
+      <c r="N24" s="27">
+        <f t="shared" si="0"/>
+        <v>4.7337664102633799E-2</v>
+      </c>
+      <c r="O24" s="23">
+        <f t="shared" si="0"/>
+        <v>3.1047173989401509E-2</v>
       </c>
     </row>
-    <row r="25">
-      <c r="I25" s="9" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I25" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="18">
-        <f t="shared" ref="K25:O25" si="14">K10*K15*K20</f>
-        <v>0.1472605151</v>
-      </c>
-      <c r="L25" s="18">
-        <f t="shared" si="14"/>
-        <v>0.1553454605</v>
-      </c>
-      <c r="M25" s="18">
-        <f t="shared" si="14"/>
-        <v>0.1556579557</v>
-      </c>
-      <c r="N25" s="18">
-        <f t="shared" si="14"/>
-        <v>0.1541012655</v>
-      </c>
-      <c r="O25" s="11">
-        <f t="shared" si="14"/>
-        <v>0.1319694452</v>
+      <c r="J25" s="22"/>
+      <c r="K25" s="27">
+        <f t="shared" ref="K25:O25" si="1">K10*K15*K20</f>
+        <v>0.14726051508793672</v>
+      </c>
+      <c r="L25" s="27">
+        <f t="shared" si="1"/>
+        <v>0.15534546045591843</v>
+      </c>
+      <c r="M25" s="27">
+        <f t="shared" si="1"/>
+        <v>0.15565795569802532</v>
+      </c>
+      <c r="N25" s="27">
+        <f t="shared" si="1"/>
+        <v>0.15410126551967721</v>
+      </c>
+      <c r="O25" s="23">
+        <f t="shared" si="1"/>
+        <v>0.13196944521369885</v>
       </c>
     </row>
-    <row r="26">
-      <c r="I26" s="12" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I26" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="16">
-        <f t="shared" ref="K26:O26" si="15">K11*K16*K21</f>
-        <v>0.1252054868</v>
-      </c>
-      <c r="L26" s="16">
-        <f t="shared" si="15"/>
-        <v>0.1408032983</v>
-      </c>
-      <c r="M26" s="16">
-        <f t="shared" si="15"/>
-        <v>0.1522113943</v>
-      </c>
-      <c r="N26" s="16">
-        <f t="shared" si="15"/>
-        <v>0.1425639388</v>
-      </c>
-      <c r="O26" s="17">
-        <f t="shared" si="15"/>
-        <v>0.1043780563</v>
+      <c r="J26" s="22"/>
+      <c r="K26" s="23">
+        <f t="shared" ref="K26:O26" si="2">K11*K16*K21</f>
+        <v>0.12520548683536797</v>
+      </c>
+      <c r="L26" s="23">
+        <f t="shared" si="2"/>
+        <v>0.1408032983109456</v>
+      </c>
+      <c r="M26" s="23">
+        <f t="shared" si="2"/>
+        <v>0.15221139430284858</v>
+      </c>
+      <c r="N26" s="23">
+        <f t="shared" si="2"/>
+        <v>0.14256393883764151</v>
+      </c>
+      <c r="O26" s="23">
+        <f t="shared" si="2"/>
+        <v>0.10437805631472581</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I27" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="22"/>
+      <c r="K27" s="23">
+        <f>(K24+K25+K26)/3</f>
+        <v>9.7371364140278624E-2</v>
+      </c>
+      <c r="L27" s="23">
+        <f>(L24+L25+L26)/3</f>
+        <v>0.11952921831869624</v>
+      </c>
+      <c r="M27" s="23">
+        <f>(M24+M25+M26)/3</f>
+        <v>0.12951306385349098</v>
+      </c>
+      <c r="N27" s="23">
+        <f>(N24+N25+N26)/3</f>
+        <v>0.11466762281998417</v>
+      </c>
+      <c r="O27" s="23">
+        <f>(O24+O25+O26)/3</f>
+        <v>8.9131558505942066E-2</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/OIM-Tables.xlsx
+++ b/OIM-Tables.xlsx
@@ -3,7 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="List1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Dupont" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Struktura sredstev, virov" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Likvidnost, solventnost" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Tržna uspešnost" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="70">
   <si>
     <t>POMOŽNE TABELE</t>
   </si>
@@ -19,25 +22,46 @@
     <t>DUPONT KAZALCI</t>
   </si>
   <si>
-    <t>VSA SREDSTVA ($m)</t>
+    <t>VSA SREDSTVA</t>
   </si>
   <si>
     <t>ROA</t>
   </si>
   <si>
+    <t>OCENE</t>
+  </si>
+  <si>
     <t>HSBC</t>
+  </si>
+  <si>
+    <t>Veliko slabše od ostalih dveh, v zadnjih dveh letih padlo za več kot 50%</t>
   </si>
   <si>
     <t>ROYAL BANK OF CANADA</t>
   </si>
   <si>
+    <t>Najvišji, raste manj od drugih dveh, a so tudi padci manjši</t>
+  </si>
+  <si>
     <t>TORONTO DOMINION BANK</t>
   </si>
   <si>
-    <t>KAPITAL ($m)</t>
+    <t>Zelo blizu najboljšemu, v zadnjem letu večji padec od najboljšega podjetja</t>
+  </si>
+  <si>
+    <t>KAPITAL</t>
   </si>
   <si>
     <t>DOBIČKOVNOST PRIHODKOV</t>
+  </si>
+  <si>
+    <t>Veliko nižji od ostalih dveh, vzponi so zelo veliki in se je v 5 letih skoraj podvojilo</t>
+  </si>
+  <si>
+    <t>Skoraj enako kot konkurent, 17-19 je manj rastlo kot tekmec</t>
+  </si>
+  <si>
+    <t>V povprečju največje, le zadnje leto je prineslo večje znižanje</t>
   </si>
   <si>
     <t>PRIHODKI</t>
@@ -46,20 +70,167 @@
     <t>OBRAT SREDSTEV</t>
   </si>
   <si>
+    <t>Skoraj enak trend kot ostale dve, le vrednosti so najnižje</t>
+  </si>
+  <si>
+    <t>Skoraj enak trend kot ostale dve, le vrednosti so najvišje</t>
+  </si>
+  <si>
+    <t>Skoraj enak trend kot ostale dve, vrednosti so v srednini</t>
+  </si>
+  <si>
     <t>DOBIČEK</t>
   </si>
   <si>
     <t>MULITPLIKATOR KAPITALA</t>
   </si>
   <si>
+    <t>Vrednosti se počasi povečujejo zadnja 4 leta, vrednosti so še vedno najnižje</t>
+  </si>
+  <si>
+    <t>Vrednosti so skoraj enake tekmecu, zadnja 4 leta pa je rastlo</t>
+  </si>
+  <si>
+    <t>Vrednosti so skoraj enake tekmecu, 17-19 je vrednost padla, zadnje leto so narasle</t>
+  </si>
+  <si>
     <t>ROE</t>
+  </si>
+  <si>
+    <t>Vrednosti so najnižje, do 18 zelo raste, nato pa strmo pade</t>
+  </si>
+  <si>
+    <t>Najvišje vrednosti, v zadnjem letu manj padlo od tekmeca</t>
+  </si>
+  <si>
+    <t>Vrednosti so malo manjše od tekmeca, do 18 raste, nato zelo pade</t>
+  </si>
+  <si>
+    <t>DOBIČKONOSNOST PRIHODKOV</t>
+  </si>
+  <si>
+    <t>MULTIPLIKATOR KAPITALA</t>
+  </si>
+  <si>
+    <t>DELEŽ OBVEZNOSTI</t>
+  </si>
+  <si>
+    <t>Vsa imajo skoraj enak delež</t>
+  </si>
+  <si>
+    <t>BANČNE REZERVE</t>
+  </si>
+  <si>
+    <t>DELEŽ KAPITALA</t>
+  </si>
+  <si>
+    <t>Največji delež kapitala, vendar ima negativen trend</t>
+  </si>
+  <si>
+    <t>Dokaj stabilen delež, vrednost podobna tekmecu</t>
+  </si>
+  <si>
+    <t>Vrednosti podobne tekmecu, a ima pozitiven trend (če zanemarimo zadnje leto)</t>
+  </si>
+  <si>
+    <t>SREDSTVA ZA TRGOVANJE</t>
+  </si>
+  <si>
+    <t>DELEŽ BANČNIH REZERV</t>
+  </si>
+  <si>
+    <t>OBVEZNOSTI</t>
+  </si>
+  <si>
+    <t>DELEŽ SREDSTEV ZA TRGOVANJE</t>
+  </si>
+  <si>
+    <t>DELEŽ DERIVATIVOV</t>
+  </si>
+  <si>
+    <t>DERIVATIVES</t>
+  </si>
+  <si>
+    <t>DELEŽ POSOJIL</t>
+  </si>
+  <si>
+    <t>POSOJILA</t>
+  </si>
+  <si>
+    <t>DELEŽ ODLOŽENIH TERJATEV ZA DAVEK</t>
+  </si>
+  <si>
+    <t>ODLOŽENE TERJATVE ZA DAVEK</t>
+  </si>
+  <si>
+    <t>DELEŽ POVRATNIH REPO POGODB</t>
+  </si>
+  <si>
+    <t>POVRATNE REPO POGODBE</t>
+  </si>
+  <si>
+    <t>RAZPOLOŽLJIVA FINANČNA SREDSTVA</t>
+  </si>
+  <si>
+    <t>LIKVIDNOST</t>
+  </si>
+  <si>
+    <t>ZAPADLE OBVEZNOSTI</t>
+  </si>
+  <si>
+    <t>SOLVENTNOST</t>
+  </si>
+  <si>
+    <t>DOLG</t>
+  </si>
+  <si>
+    <t>TOTAL SHAREHOLDER EQUITY</t>
+  </si>
+  <si>
+    <t>LIKVIDNOST = CASH AND CASH EQUIVALENTS, MANJ OD 1</t>
+  </si>
+  <si>
+    <t>SOLVENTNOST TVEGANO &gt; 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE 10-30(MANJ=INVESTITOR, VEČ=MANAGER),  PS 1-7(VEČ=MANAGER, MANJ=INVESTITOR),  PB NEG=SLABO, 0-1=SREDNJE, 1-3=DOBRO, &gt;3 = SLABO </t>
+  </si>
+  <si>
+    <t>MARKET CAPITALIZATION</t>
+  </si>
+  <si>
+    <t>P/E</t>
+  </si>
+  <si>
+    <t>NUMBER OF SHARES</t>
+  </si>
+  <si>
+    <t>P/S</t>
+  </si>
+  <si>
+    <t>NET EARNINGS</t>
+  </si>
+  <si>
+    <t>P/B</t>
+  </si>
+  <si>
+    <t>NET REVENUES</t>
+  </si>
+  <si>
+    <t>TOTAL ASSETS</t>
+  </si>
+  <si>
+    <t>INTANGIBLE ASSETS</t>
+  </si>
+  <si>
+    <t>LIABILITIES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -69,9 +240,13 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
     <font/>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,8 +277,14 @@
         <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border/>
     <border>
       <left style="thin">
@@ -136,6 +317,14 @@
       </bottom>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -166,11 +355,46 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -178,9 +402,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -191,38 +412,103 @@
     <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -232,7 +518,3999 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>ROA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HSBC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dupont!$K$3:$O$3</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dupont!$K$4:$O$4</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dupont!$K$3:$O$3</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dupont!$K$5:$O$5</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dupont!$K$3:$O$3</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dupont!$K$6:$O$6</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="961882480"/>
+        <c:axId val="230580740"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="961882480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="230580740"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="230580740"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="961882480"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>DELEŽ DERIVATIVOV</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HSBC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Struktura sredstev, virov'!$K$23:$O$23</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Struktura sredstev, virov'!$K$24:$O$24</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Struktura sredstev, virov'!$K$23:$O$23</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Struktura sredstev, virov'!$K$25:$O$25</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Struktura sredstev, virov'!$K$23:$O$23</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Struktura sredstev, virov'!$K$26:$O$26</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="175537515"/>
+        <c:axId val="1903238099"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="175537515"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1903238099"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1903238099"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175537515"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>DELEŽ POSOJIL</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HSBC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Struktura sredstev, virov'!$K$28:$O$28</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Struktura sredstev, virov'!$K$29:$O$29</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Struktura sredstev, virov'!$K$28:$O$28</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Struktura sredstev, virov'!$K$30:$O$30</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Struktura sredstev, virov'!$K$28:$O$28</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Struktura sredstev, virov'!$K$31:$O$31</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1488595902"/>
+        <c:axId val="63920011"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1488595902"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63920011"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="63920011"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1488595902"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>DELEŽ ODLOŽENIH TERJATEV</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HSBC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Struktura sredstev, virov'!$K$33:$O$33</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Struktura sredstev, virov'!$K$34:$O$34</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Struktura sredstev, virov'!$K$33:$O$33</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Struktura sredstev, virov'!$K$35:$O$35</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Struktura sredstev, virov'!$K$33:$O$33</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Struktura sredstev, virov'!$K$36:$O$36</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="86658023"/>
+        <c:axId val="1403236339"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="86658023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1403236339"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1403236339"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="86658023"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>DELEŽ POVRATNIH REPO POGODB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HSBC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Struktura sredstev, virov'!$K$38:$O$38</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Struktura sredstev, virov'!$K$39:$O$39</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Struktura sredstev, virov'!$K$38:$O$38</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Struktura sredstev, virov'!$K$40:$O$40</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Struktura sredstev, virov'!$K$38:$O$38</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Struktura sredstev, virov'!$K$41:$O$41</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1691941458"/>
+        <c:axId val="620068364"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1691941458"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620068364"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="620068364"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1691941458"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>DOBIČKONOSNOST PRIHODKOV</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HSBC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dupont!$K$8:$O$8</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dupont!$K$9:$O$9</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dupont!$K$8:$O$8</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dupont!$K$10:$O$10</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dupont!$K$8:$O$8</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dupont!$K$11:$O$11</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1549804"/>
+        <c:axId val="147602989"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1549804"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="147602989"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="147602989"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1549804"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>OBRAT SREDSTEV</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HSBC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dupont!$K$13:$O$13</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dupont!$K$14:$O$14</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dupont!$K$13:$O$13</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dupont!$K$15:$O$15</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dupont!$K$13:$O$13</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dupont!$K$16:$O$16</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="2057749046"/>
+        <c:axId val="2011034827"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2057749046"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2011034827"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2011034827"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2057749046"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>MULTIPLIKATOR KAPITALA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HSBC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dupont!$K$18:$O$18</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dupont!$K$19:$O$19</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dupont!$K$18:$O$18</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dupont!$K$20:$O$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dupont!$K$18:$O$18</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dupont!$K$21:$O$21</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="874905833"/>
+        <c:axId val="1492661183"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="874905833"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1492661183"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1492661183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="874905833"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>ROE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HSBC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dupont!$K$23:$O$23</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dupont!$K$24:$O$24</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dupont!$K$23:$O$23</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dupont!$K$25:$O$25</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dupont!$K$23:$O$23</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dupont!$K$26:$O$26</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="963929992"/>
+        <c:axId val="529583446"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="963929992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="529583446"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="529583446"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="963929992"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>DELEŽ OBVEZNOSTI</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HSBC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Struktura sredstev, virov'!$K$3:$O$3</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Struktura sredstev, virov'!$K$4:$O$4</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Struktura sredstev, virov'!$K$3:$O$3</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Struktura sredstev, virov'!$K$5:$O$5</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Struktura sredstev, virov'!$K$3:$O$3</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Struktura sredstev, virov'!$K$6:$O$6</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1150725802"/>
+        <c:axId val="1586025462"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1150725802"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1586025462"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1586025462"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1150725802"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>DELEŽ KAPITALA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HSBC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Struktura sredstev, virov'!$K$8:$O$8</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Struktura sredstev, virov'!$K$9:$O$9</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Struktura sredstev, virov'!$K$8:$O$8</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Struktura sredstev, virov'!$K$10:$O$10</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Struktura sredstev, virov'!$K$8:$O$8</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Struktura sredstev, virov'!$K$11:$O$11</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1332327396"/>
+        <c:axId val="1088666907"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1332327396"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1088666907"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1088666907"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1332327396"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>DELEŽ BANČNIH REZERV</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HSBC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Struktura sredstev, virov'!$K$13:$O$13</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Struktura sredstev, virov'!$K$14:$O$14</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Struktura sredstev, virov'!$K$13:$O$13</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Struktura sredstev, virov'!$K$15:$O$15</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Struktura sredstev, virov'!$K$13:$O$13</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Struktura sredstev, virov'!$K$16:$O$16</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1060299256"/>
+        <c:axId val="1997077325"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1060299256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1997077325"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1997077325"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1060299256"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>DELEŽ SREDSTEV ZA TRGOVANJE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HSBC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Struktura sredstev, virov'!$K$18:$O$18</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Struktura sredstev, virov'!$K$19:$O$19</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Struktura sredstev, virov'!$K$18:$O$18</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Struktura sredstev, virov'!$K$20:$O$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Struktura sredstev, virov'!$K$18:$O$18</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Struktura sredstev, virov'!$K$21:$O$21</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1476461246"/>
+        <c:axId val="1387159896"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1476461246"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1387159896"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1387159896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1476461246"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4410075" cy="2724150"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Tabela"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4410075" cy="2724150"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2" title="Tabela"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4410075" cy="2724150"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3" title="Tabela"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4410075" cy="2724150"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 4" title="Tabela"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4419600" cy="2724150"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 5" title="Tabela"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4267200" cy="2581275"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 6" title="Tabela"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4267200" cy="2581275"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 7" title="Tabela"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4267200" cy="2581275"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 8" title="Tabela"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4267200" cy="2581275"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 9" title="Tabela"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4267200" cy="2581275"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 10" title="Tabela"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4267200" cy="2581275"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 11" title="Tabela"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4267200" cy="2581275"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 12" title="Tabela"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4267200" cy="2581275"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 13" title="Tabela"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -445,87 +4723,91 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="J1" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5">
         <v>2016.0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>2017.0</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>2018.0</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>2019.0</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>2020.0</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6">
+      <c r="J3" s="4"/>
+      <c r="K3" s="5">
         <v>2016.0</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>2017.0</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <v>2018.0</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="5">
         <v>2019.0</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="6">
         <v>2020.0</v>
       </c>
+      <c r="P3" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="3">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10">
         <v>2374986.0</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="10">
         <v>2521771.0</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="10">
         <v>2558124.0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="10">
         <v>2715152.0</v>
       </c>
       <c r="G4" s="11">
         <v>2984164.0</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="3">
+      <c r="I4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10">
         <f t="shared" ref="K4:O4" si="1">C19/C4</f>
         <v>0.001450955921</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="10">
         <f t="shared" si="1"/>
         <v>0.004710578399</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="10">
         <f t="shared" si="1"/>
         <v>0.005873444759</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="10">
         <f t="shared" si="1"/>
         <v>0.003207186927</v>
       </c>
@@ -533,44 +4815,54 @@
         <f t="shared" si="1"/>
         <v>0.002043788478</v>
       </c>
+      <c r="P4" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="15"/>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="3">
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10">
         <v>1180258.0</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="10">
         <v>1212853.0</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="10">
         <v>1334734.0</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="10">
         <v>1428935.0</v>
       </c>
       <c r="G5" s="11">
         <v>1624548.0</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="3">
+      <c r="I5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10">
         <f t="shared" ref="K5:O5" si="2">C20/C5</f>
         <v>0.008860774509</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="10">
         <f t="shared" si="2"/>
         <v>0.009456216046</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="10">
         <f t="shared" si="2"/>
         <v>0.009313466204</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="10">
         <f t="shared" si="2"/>
         <v>0.009007407615</v>
       </c>
@@ -578,174 +4870,207 @@
         <f t="shared" si="2"/>
         <v>0.00704011208</v>
       </c>
+      <c r="P5" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14">
+      <c r="A6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18">
         <v>1176967.0</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="18">
         <v>1278995.0</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="18">
         <v>1334903.0</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="18">
         <v>1415290.0</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="19">
         <v>1715865.0</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="16">
+      <c r="I6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18">
         <f t="shared" ref="K6:O6" si="3">C21/C6</f>
         <v>0.00789486876</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="18">
         <f t="shared" si="3"/>
         <v>0.008277592954</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="18">
         <f t="shared" si="3"/>
         <v>0.009126505821</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="18">
         <f t="shared" si="3"/>
         <v>0.008834231854</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="19">
         <f t="shared" si="3"/>
         <v>0.005809314835</v>
       </c>
+      <c r="P6" s="20">
+        <v>7.0</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="15"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5">
         <v>2016.0</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>2017.0</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>2018.0</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>2019.0</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>2020.0</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6">
+      <c r="I8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5">
         <v>2016.0</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>2017.0</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>2018.0</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <v>2019.0</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <v>2020.0</v>
       </c>
+      <c r="P8" s="21" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="3">
-        <v>175386.0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>190250.0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>186253.0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>183955.0</v>
+      <c r="A9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10">
+        <v>182578.0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>197871.0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>194249.0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>192668.0</v>
       </c>
       <c r="G9" s="11">
-        <v>196443.0</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="3">
+        <v>204995.0</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10">
         <f t="shared" ref="K9:O9" si="4">C19/C14</f>
-        <v>0.07732352017</v>
-      </c>
-      <c r="L9" s="3">
+        <v>0.05759074804</v>
+      </c>
+      <c r="L9" s="10">
         <f t="shared" si="4"/>
-        <v>0.2391295595</v>
-      </c>
-      <c r="M9" s="18">
+        <v>0.1862612895</v>
+      </c>
+      <c r="M9" s="22">
         <f t="shared" si="4"/>
-        <v>0.2888700902</v>
-      </c>
-      <c r="N9" s="18">
+        <v>0.2362904367</v>
+      </c>
+      <c r="N9" s="22">
         <f t="shared" si="4"/>
-        <v>0.1632484721</v>
+        <v>0.1226064429</v>
       </c>
       <c r="O9" s="11">
         <f t="shared" si="4"/>
-        <v>0.1465682976</v>
-      </c>
+        <v>0.09669594445</v>
+      </c>
+      <c r="P9" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="15"/>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="3">
-        <v>71017.0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>73829.0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>79861.0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>83523.0</v>
+      <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10">
+        <v>71612.0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>74428.0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>79955.0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>83625.0</v>
       </c>
       <c r="G10" s="11">
-        <v>86664.0</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="18">
+        <v>86767.0</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="22">
         <f t="shared" ref="K10:O10" si="5">C20/C15</f>
         <v>0.2723082932</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="22">
         <f t="shared" si="5"/>
         <v>0.2820084094</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="22">
         <f t="shared" si="5"/>
         <v>0.291972003</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="22">
         <f t="shared" si="5"/>
         <v>0.2797921829</v>
       </c>
@@ -753,174 +5078,207 @@
         <f t="shared" si="5"/>
         <v>0.2424069011</v>
       </c>
+      <c r="P10" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="15"/>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14">
+      <c r="A11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18">
         <v>74214.0</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="18">
         <v>75190.0</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="18">
         <v>80040.0</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="18">
         <v>87701.0</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="19">
         <v>95499.0</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="16">
+      <c r="I11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18">
         <f t="shared" ref="K11:O11" si="6">C21/C16</f>
         <v>0.2708406203</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="18">
         <f t="shared" si="6"/>
         <v>0.294525121</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="18">
         <f t="shared" si="6"/>
         <v>0.3125368769</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="18">
         <f t="shared" si="6"/>
         <v>0.3044685255</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="19">
         <f t="shared" si="6"/>
         <v>0.2360686797</v>
       </c>
+      <c r="P11" s="20">
+        <v>8.0</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="15"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5">
         <v>2016.0</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>2017.0</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>2018.0</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>2019.0</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>2020.0</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6">
+      <c r="I13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5">
         <v>2016.0</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>2017.0</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <v>2018.0</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="5">
         <v>2019.0</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="6">
         <v>2020.0</v>
       </c>
+      <c r="P13" s="21" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="19">
-        <v>44566.0</v>
-      </c>
-      <c r="D14" s="19">
-        <v>49676.0</v>
-      </c>
-      <c r="E14" s="19">
-        <v>52013.0</v>
-      </c>
-      <c r="F14" s="19">
-        <v>53342.0</v>
-      </c>
-      <c r="G14" s="20">
-        <v>41612.0</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="18">
+      <c r="A14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10">
+        <v>59836.0</v>
+      </c>
+      <c r="D14" s="10">
+        <v>63776.0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>63587.0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>71024.0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>63074.0</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="22">
         <f t="shared" ref="K14:O14" si="7">C14/C4</f>
-        <v>0.01876474219</v>
-      </c>
-      <c r="L14" s="18">
+        <v>0.02519425378</v>
+      </c>
+      <c r="L14" s="22">
         <f t="shared" si="7"/>
-        <v>0.0196988545</v>
-      </c>
-      <c r="M14" s="18">
+        <v>0.02529016314</v>
+      </c>
+      <c r="M14" s="22">
         <f t="shared" si="7"/>
-        <v>0.02033247802</v>
-      </c>
-      <c r="N14" s="18">
+        <v>0.02485688731</v>
+      </c>
+      <c r="N14" s="22">
         <f t="shared" si="7"/>
-        <v>0.0196460456</v>
+        <v>0.02615838819</v>
       </c>
       <c r="O14" s="11">
         <f t="shared" si="7"/>
-        <v>0.01394427384</v>
-      </c>
+        <v>0.02113623782</v>
+      </c>
+      <c r="P14" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="15"/>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="3">
+      <c r="A15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10">
         <v>38405.0</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="10">
         <v>40669.0</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="10">
         <v>42576.0</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="10">
         <v>46002.0</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="11">
         <v>47181.0</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="18">
+      <c r="I15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="22">
         <f t="shared" ref="K15:O15" si="8">C15/C5</f>
         <v>0.0325394956</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="22">
         <f t="shared" si="8"/>
         <v>0.03353168109</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="22">
         <f t="shared" si="8"/>
         <v>0.03189849064</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="22">
         <f t="shared" si="8"/>
         <v>0.03219320683</v>
       </c>
@@ -928,325 +5286,2881 @@
         <f t="shared" si="8"/>
         <v>0.02904253983</v>
       </c>
+      <c r="P15" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="15"/>
     </row>
     <row r="16">
-      <c r="A16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14">
+      <c r="A16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18">
         <v>34308.0</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="18">
         <v>35946.0</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="18">
         <v>38981.0</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="18">
         <v>41065.0</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="19">
         <v>42225.0</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="16">
+      <c r="I16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18">
         <f t="shared" ref="K16:O16" si="9">C16/C6</f>
         <v>0.02914950037</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="18">
         <f t="shared" si="9"/>
         <v>0.02810487922</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="18">
         <f t="shared" si="9"/>
         <v>0.02920137268</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N16" s="18">
         <f t="shared" si="9"/>
         <v>0.02901525482</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="19">
         <f t="shared" si="9"/>
         <v>0.02460857935</v>
       </c>
+      <c r="P16" s="20">
+        <v>7.0</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="15"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5">
         <v>2016.0</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>2017.0</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>2018.0</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>2019.0</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>2020.0</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="6">
+      <c r="I18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5">
         <v>2016.0</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>2017.0</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <v>2018.0</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="5">
         <v>2019.0</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="6">
         <v>2020.0</v>
       </c>
+      <c r="P18" s="21" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="19">
+      <c r="A19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10">
         <v>3446.0</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="10">
         <v>11879.0</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="10">
         <v>15025.0</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="10">
         <v>8708.0</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="11">
         <v>6099.0</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="18">
+      <c r="I19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="22">
         <f t="shared" ref="K19:O19" si="10">C4/C9</f>
-        <v>13.54147994</v>
-      </c>
-      <c r="L19" s="18">
+        <v>13.00806231</v>
+      </c>
+      <c r="L19" s="22">
         <f t="shared" si="10"/>
-        <v>13.25503811</v>
-      </c>
-      <c r="M19" s="18">
+        <v>12.74452042</v>
+      </c>
+      <c r="M19" s="22">
         <f t="shared" si="10"/>
-        <v>13.73467273</v>
-      </c>
-      <c r="N19" s="18">
+        <v>13.16930332</v>
+      </c>
+      <c r="N19" s="22">
         <f t="shared" si="10"/>
-        <v>14.75987062</v>
+        <v>14.0923869</v>
       </c>
       <c r="O19" s="11">
         <f t="shared" si="10"/>
-        <v>15.19099179</v>
-      </c>
+        <v>14.55725262</v>
+      </c>
+      <c r="P19" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="15"/>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="3">
+      <c r="A20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10">
         <v>10458.0</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="10">
         <v>11469.0</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="10">
         <v>12431.0</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="10">
         <v>12871.0</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="11">
         <v>11437.0</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="18">
+      <c r="I20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="22">
         <f t="shared" ref="K20:O20" si="11">C5/C10</f>
-        <v>16.61937283</v>
-      </c>
-      <c r="L20" s="18">
+        <v>16.48128805</v>
+      </c>
+      <c r="L20" s="22">
         <f t="shared" si="11"/>
-        <v>16.4278671</v>
-      </c>
-      <c r="M20" s="18">
+        <v>16.29565486</v>
+      </c>
+      <c r="M20" s="22">
         <f t="shared" si="11"/>
-        <v>16.71321421</v>
-      </c>
-      <c r="N20" s="18">
+        <v>16.69356513</v>
+      </c>
+      <c r="N20" s="22">
         <f t="shared" si="11"/>
-        <v>17.10828155</v>
+        <v>17.08741405</v>
       </c>
       <c r="O20" s="11">
         <f t="shared" si="11"/>
-        <v>18.7453614</v>
-      </c>
+        <v>18.72310902</v>
+      </c>
+      <c r="P20" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="15"/>
     </row>
     <row r="21">
-      <c r="A21" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14">
+      <c r="A21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18">
         <v>9292.0</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="18">
         <v>10587.0</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="18">
         <v>12183.0</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="18">
         <v>12503.0</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="19">
         <v>9968.0</v>
       </c>
-      <c r="I21" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="16">
+      <c r="I21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18">
         <f t="shared" ref="K21:O21" si="12">C6/C11</f>
         <v>15.85909667</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="18">
         <f t="shared" si="12"/>
         <v>17.01017423</v>
       </c>
-      <c r="M21" s="16">
+      <c r="M21" s="18">
         <f t="shared" si="12"/>
         <v>16.67794853</v>
       </c>
-      <c r="N21" s="16">
+      <c r="N21" s="18">
         <f t="shared" si="12"/>
         <v>16.13767232</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O21" s="19">
         <f t="shared" si="12"/>
         <v>17.96736091</v>
       </c>
+      <c r="P21" s="20">
+        <v>7.0</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="15"/>
     </row>
     <row r="23">
-      <c r="I23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="6">
+      <c r="I23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5">
         <v>2016.0</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="5">
         <v>2017.0</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="5">
         <v>2018.0</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="5">
         <v>2019.0</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="6">
         <v>2020.0</v>
       </c>
+      <c r="P23" s="21" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
-      <c r="I24" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="3">
+      <c r="I24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="10">
         <f t="shared" ref="K24:O24" si="13">K9*K14*K19</f>
-        <v>0.0196480905</v>
-      </c>
-      <c r="L24" s="18">
+        <v>0.01887412503</v>
+      </c>
+      <c r="L24" s="22">
         <f t="shared" si="13"/>
-        <v>0.06243889619</v>
-      </c>
-      <c r="M24" s="18">
+        <v>0.0600340626</v>
+      </c>
+      <c r="M24" s="22">
         <f t="shared" si="13"/>
-        <v>0.08066984156</v>
-      </c>
-      <c r="N24" s="18">
+        <v>0.07734917554</v>
+      </c>
+      <c r="N24" s="22">
         <f t="shared" si="13"/>
-        <v>0.0473376641</v>
+        <v>0.04519691905</v>
       </c>
       <c r="O24" s="11">
         <f t="shared" si="13"/>
-        <v>0.03104717399</v>
-      </c>
+        <v>0.02975194517</v>
+      </c>
+      <c r="P24" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="15"/>
     </row>
     <row r="25">
-      <c r="I25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="18">
+      <c r="I25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="22">
         <f t="shared" ref="K25:O25" si="14">K10*K15*K20</f>
-        <v>0.1472605151</v>
-      </c>
-      <c r="L25" s="18">
+        <v>0.146036977</v>
+      </c>
+      <c r="L25" s="22">
         <f t="shared" si="14"/>
-        <v>0.1553454605</v>
-      </c>
-      <c r="M25" s="18">
+        <v>0.154095233</v>
+      </c>
+      <c r="M25" s="22">
         <f t="shared" si="14"/>
-        <v>0.1556579557</v>
-      </c>
-      <c r="N25" s="18">
+        <v>0.1554749547</v>
+      </c>
+      <c r="N25" s="22">
         <f t="shared" si="14"/>
-        <v>0.1541012655</v>
+        <v>0.1539133034</v>
       </c>
       <c r="O25" s="11">
         <f t="shared" si="14"/>
-        <v>0.1319694452</v>
-      </c>
+        <v>0.131812786</v>
+      </c>
+      <c r="P25" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="15"/>
     </row>
     <row r="26">
-      <c r="I26" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="16">
+      <c r="I26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="17"/>
+      <c r="K26" s="18">
         <f t="shared" ref="K26:O26" si="15">K11*K16*K21</f>
         <v>0.1252054868</v>
       </c>
-      <c r="L26" s="16">
+      <c r="L26" s="18">
         <f t="shared" si="15"/>
         <v>0.1408032983</v>
       </c>
-      <c r="M26" s="16">
+      <c r="M26" s="18">
         <f t="shared" si="15"/>
         <v>0.1522113943</v>
       </c>
-      <c r="N26" s="16">
+      <c r="N26" s="18">
         <f t="shared" si="15"/>
         <v>0.1425639388</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O26" s="19">
         <f t="shared" si="15"/>
         <v>0.1043780563</v>
       </c>
+      <c r="P26" s="20">
+        <v>7.0</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="15"/>
+    </row>
+    <row r="28">
+      <c r="I28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="I29" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="K29" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="L29" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="M29" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="N29" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="O29" s="11">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="I30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="9"/>
+      <c r="K30" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="L30" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="M30" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="N30" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="O30" s="11">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="I31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="17"/>
+      <c r="K31" s="18">
+        <v>7.0</v>
+      </c>
+      <c r="L31" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="M31" s="18">
+        <v>7.0</v>
+      </c>
+      <c r="N31" s="18">
+        <v>7.0</v>
+      </c>
+      <c r="O31" s="19">
+        <v>7.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2019.0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>2019.0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10">
+        <v>2374986.0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2521771.0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2558124.0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>2715152.0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2984164.0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="22">
+        <f t="shared" ref="K4:O4" si="1">C19/C4</f>
+        <v>0.9231245995</v>
+      </c>
+      <c r="L4" s="22">
+        <f t="shared" si="1"/>
+        <v>0.9215349054</v>
+      </c>
+      <c r="M4" s="22">
+        <f t="shared" si="1"/>
+        <v>0.9240658389</v>
+      </c>
+      <c r="N4" s="22">
+        <f t="shared" si="1"/>
+        <v>0.9290397002</v>
+      </c>
+      <c r="O4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.9313057191</v>
+      </c>
+      <c r="P4" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10">
+        <v>1180258.0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1212853.0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1334734.0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1428935.0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1624548.0</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="22">
+        <f t="shared" ref="K5:O5" si="2">C20/C5</f>
+        <v>0.9393251306</v>
+      </c>
+      <c r="L5" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9386339482</v>
+      </c>
+      <c r="M5" s="22">
+        <f t="shared" si="2"/>
+        <v>0.9400966784</v>
+      </c>
+      <c r="N5" s="22">
+        <f t="shared" si="2"/>
+        <v>0.941477394</v>
+      </c>
+      <c r="O5" s="11">
+        <f t="shared" si="2"/>
+        <v>0.9465900669</v>
+      </c>
+      <c r="P5" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18">
+        <v>1176967.0</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1278995.0</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1334903.0</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1415290.0</v>
+      </c>
+      <c r="G6" s="19">
+        <v>1715865.0</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18">
+        <f t="shared" ref="K6:O6" si="3">C21/C6</f>
+        <v>0.9369447062</v>
+      </c>
+      <c r="L6" s="28">
+        <f t="shared" si="3"/>
+        <v>0.9412116545</v>
+      </c>
+      <c r="M6" s="28">
+        <f t="shared" si="3"/>
+        <v>0.9400405872</v>
+      </c>
+      <c r="N6" s="28">
+        <f t="shared" si="3"/>
+        <v>0.9380331946</v>
+      </c>
+      <c r="O6" s="19">
+        <f t="shared" si="3"/>
+        <v>0.9443435235</v>
+      </c>
+      <c r="P6" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2019.0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>2019.0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10">
+        <v>128009.0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>180624.0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>162843.0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>154099.0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>304481.0</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="22">
+        <f t="shared" ref="K9:O9" si="4">C24/C4</f>
+        <v>0.07687540053</v>
+      </c>
+      <c r="L9" s="22">
+        <f t="shared" si="4"/>
+        <v>0.07846509457</v>
+      </c>
+      <c r="M9" s="22">
+        <f t="shared" si="4"/>
+        <v>0.07593416113</v>
+      </c>
+      <c r="N9" s="22">
+        <f t="shared" si="4"/>
+        <v>0.07096029983</v>
+      </c>
+      <c r="O9" s="11">
+        <f t="shared" si="4"/>
+        <v>0.06869428088</v>
+      </c>
+      <c r="P9" s="26">
+        <v>8.0</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10">
+        <v>14929.0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>28407.0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>30209.0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>26310.0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>118888.0</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="22">
+        <f t="shared" ref="K10:O10" si="5">C25/C5</f>
+        <v>0.06067486939</v>
+      </c>
+      <c r="L10" s="22">
+        <f t="shared" si="5"/>
+        <v>0.06136605178</v>
+      </c>
+      <c r="M10" s="22">
+        <f t="shared" si="5"/>
+        <v>0.05990332156</v>
+      </c>
+      <c r="N10" s="22">
+        <f t="shared" si="5"/>
+        <v>0.058522606</v>
+      </c>
+      <c r="O10" s="11">
+        <f t="shared" si="5"/>
+        <v>0.0534099331</v>
+      </c>
+      <c r="P10" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18">
+        <v>3907.0</v>
+      </c>
+      <c r="D11" s="18">
+        <v>3971.0</v>
+      </c>
+      <c r="E11" s="18">
+        <v>4735.0</v>
+      </c>
+      <c r="F11" s="18">
+        <v>4863.0</v>
+      </c>
+      <c r="G11" s="19">
+        <v>6445.0</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18">
+        <f t="shared" ref="K11:O11" si="6">C26/C6</f>
+        <v>0.06305529382</v>
+      </c>
+      <c r="L11" s="28">
+        <f t="shared" si="6"/>
+        <v>0.05878834554</v>
+      </c>
+      <c r="M11" s="18">
+        <f t="shared" si="6"/>
+        <v>0.05995941278</v>
+      </c>
+      <c r="N11" s="28">
+        <f t="shared" si="6"/>
+        <v>0.06196680539</v>
+      </c>
+      <c r="O11" s="19">
+        <f t="shared" si="6"/>
+        <v>0.05565647647</v>
+      </c>
+      <c r="P11" s="29">
+        <v>7.0</v>
+      </c>
+      <c r="Q11" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2019.0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>2019.0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10">
+        <v>235125.0</v>
+      </c>
+      <c r="D14" s="10">
+        <v>287995.0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>238130.0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>254271.0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>231990.0</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="22">
+        <f t="shared" ref="K14:O14" si="7">C9/C4</f>
+        <v>0.05389884404</v>
+      </c>
+      <c r="L14" s="22">
+        <f t="shared" si="7"/>
+        <v>0.07162585342</v>
+      </c>
+      <c r="M14" s="22">
+        <f t="shared" si="7"/>
+        <v>0.06365719566</v>
+      </c>
+      <c r="N14" s="22">
+        <f t="shared" si="7"/>
+        <v>0.05675520192</v>
+      </c>
+      <c r="O14" s="11">
+        <f t="shared" si="7"/>
+        <v>0.102032261</v>
+      </c>
+      <c r="P14" s="12">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10">
+        <v>151292.0</v>
+      </c>
+      <c r="D15" s="10">
+        <v>127657.0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>128258.0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>146534.0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>136071.0</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="22">
+        <f t="shared" ref="K15:O15" si="8">C10/C5</f>
+        <v>0.0126489293</v>
+      </c>
+      <c r="L15" s="22">
+        <f t="shared" si="8"/>
+        <v>0.02342163477</v>
+      </c>
+      <c r="M15" s="22">
+        <f t="shared" si="8"/>
+        <v>0.02263297406</v>
+      </c>
+      <c r="N15" s="22">
+        <f t="shared" si="8"/>
+        <v>0.01841231407</v>
+      </c>
+      <c r="O15" s="11">
+        <f t="shared" si="8"/>
+        <v>0.07318220206</v>
+      </c>
+      <c r="P15" s="12">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18">
+        <v>99257.0</v>
+      </c>
+      <c r="D16" s="18">
+        <v>103918.0</v>
+      </c>
+      <c r="E16" s="18">
+        <v>127897.0</v>
+      </c>
+      <c r="F16" s="18">
+        <v>146000.0</v>
+      </c>
+      <c r="G16" s="19">
+        <v>148318.0</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18">
+        <f t="shared" ref="K16:O16" si="9">C11/C6</f>
+        <v>0.003319549316</v>
+      </c>
+      <c r="L16" s="22">
+        <f t="shared" si="9"/>
+        <v>0.003104781489</v>
+      </c>
+      <c r="M16" s="22">
+        <f t="shared" si="9"/>
+        <v>0.003547074207</v>
+      </c>
+      <c r="N16" s="22">
+        <f t="shared" si="9"/>
+        <v>0.00343604491</v>
+      </c>
+      <c r="O16" s="11">
+        <f t="shared" si="9"/>
+        <v>0.003756123005</v>
+      </c>
+      <c r="P16" s="20">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2019.0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>2019.0</v>
+      </c>
+      <c r="O18" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="P18" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10">
+        <v>2192408.0</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2323900.0</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2363875.0</v>
+      </c>
+      <c r="F19" s="10">
+        <v>2522484.0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>2779169.0</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="22">
+        <f t="shared" ref="K19:O19" si="10">C14/C4</f>
+        <v>0.09900058358</v>
+      </c>
+      <c r="L19" s="22">
+        <f t="shared" si="10"/>
+        <v>0.1142034705</v>
+      </c>
+      <c r="M19" s="22">
+        <f t="shared" si="10"/>
+        <v>0.09308774711</v>
+      </c>
+      <c r="N19" s="22">
+        <f t="shared" si="10"/>
+        <v>0.09364890069</v>
+      </c>
+      <c r="O19" s="11">
+        <f t="shared" si="10"/>
+        <v>0.07774036548</v>
+      </c>
+      <c r="P19" s="12">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10">
+        <v>1108646.0</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1138425.0</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1254779.0</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1345310.0</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1537781.0</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="22">
+        <f t="shared" ref="K20:O20" si="11">C15/C5</f>
+        <v>0.1281855323</v>
+      </c>
+      <c r="L20" s="22">
+        <f t="shared" si="11"/>
+        <v>0.1052534808</v>
+      </c>
+      <c r="M20" s="22">
+        <f t="shared" si="11"/>
+        <v>0.09609255477</v>
+      </c>
+      <c r="N20" s="22">
+        <f t="shared" si="11"/>
+        <v>0.1025477016</v>
+      </c>
+      <c r="O20" s="11">
+        <f t="shared" si="11"/>
+        <v>0.08375929797</v>
+      </c>
+      <c r="P20" s="12">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18">
+        <v>1102753.0</v>
+      </c>
+      <c r="D21" s="18">
+        <v>1203805.0</v>
+      </c>
+      <c r="E21" s="18">
+        <v>1254863.0</v>
+      </c>
+      <c r="F21" s="18">
+        <v>1327589.0</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1620366.0</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18">
+        <f t="shared" ref="K21:O21" si="12">C16/C6</f>
+        <v>0.08433286575</v>
+      </c>
+      <c r="L21" s="22">
+        <f t="shared" si="12"/>
+        <v>0.08124973123</v>
+      </c>
+      <c r="M21" s="22">
+        <f t="shared" si="12"/>
+        <v>0.09580995773</v>
+      </c>
+      <c r="N21" s="22">
+        <f t="shared" si="12"/>
+        <v>0.1031590699</v>
+      </c>
+      <c r="O21" s="11">
+        <f t="shared" si="12"/>
+        <v>0.08643920122</v>
+      </c>
+      <c r="P21" s="20">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2019.0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="M23" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="N23" s="5">
+        <v>2019.0</v>
+      </c>
+      <c r="O23" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="P23" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10">
+        <v>182578.0</v>
+      </c>
+      <c r="D24" s="10">
+        <v>197871.0</v>
+      </c>
+      <c r="E24" s="10">
+        <v>194249.0</v>
+      </c>
+      <c r="F24" s="10">
+        <v>192668.0</v>
+      </c>
+      <c r="G24" s="11">
+        <v>204995.0</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="22">
+        <f t="shared" ref="K24:O24" si="13">C29/C4</f>
+        <v>0.122473143</v>
+      </c>
+      <c r="L24" s="22">
+        <f t="shared" si="13"/>
+        <v>0.08716810527</v>
+      </c>
+      <c r="M24" s="22">
+        <f t="shared" si="13"/>
+        <v>0.08124117517</v>
+      </c>
+      <c r="N24" s="22">
+        <f t="shared" si="13"/>
+        <v>0.08949591036</v>
+      </c>
+      <c r="O24" s="11">
+        <f t="shared" si="13"/>
+        <v>0.1031196677</v>
+      </c>
+      <c r="P24" s="12">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10">
+        <v>71612.0</v>
+      </c>
+      <c r="D25" s="10">
+        <v>74428.0</v>
+      </c>
+      <c r="E25" s="10">
+        <v>79955.0</v>
+      </c>
+      <c r="F25" s="10">
+        <v>83625.0</v>
+      </c>
+      <c r="G25" s="11">
+        <v>86767.0</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="22">
+        <f t="shared" ref="K25:O25" si="14">C30/C5</f>
+        <v>0.1007779655</v>
+      </c>
+      <c r="L25" s="22">
+        <f t="shared" si="14"/>
+        <v>0.07834667515</v>
+      </c>
+      <c r="M25" s="22">
+        <f t="shared" si="14"/>
+        <v>0.07045523677</v>
+      </c>
+      <c r="N25" s="22">
+        <f t="shared" si="14"/>
+        <v>0.07107391169</v>
+      </c>
+      <c r="O25" s="11">
+        <f t="shared" si="14"/>
+        <v>0.06985820056</v>
+      </c>
+      <c r="P25" s="12">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18">
+        <v>74214.0</v>
+      </c>
+      <c r="D26" s="18">
+        <v>75190.0</v>
+      </c>
+      <c r="E26" s="18">
+        <v>80040.0</v>
+      </c>
+      <c r="F26" s="18">
+        <v>87701.0</v>
+      </c>
+      <c r="G26" s="19">
+        <v>95499.0</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="17"/>
+      <c r="K26" s="18">
+        <f t="shared" ref="K26:O26" si="15">C31/C6</f>
+        <v>0.06137980079</v>
+      </c>
+      <c r="L26" s="22">
+        <f t="shared" si="15"/>
+        <v>0.04393684104</v>
+      </c>
+      <c r="M26" s="22">
+        <f t="shared" si="15"/>
+        <v>0.04269673527</v>
+      </c>
+      <c r="N26" s="22">
+        <f t="shared" si="15"/>
+        <v>0.0345469833</v>
+      </c>
+      <c r="O26" s="11">
+        <f t="shared" si="15"/>
+        <v>0.03161204407</v>
+      </c>
+      <c r="P26" s="20">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2019.0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="L28" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="M28" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="N28" s="5">
+        <v>2019.0</v>
+      </c>
+      <c r="O28" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="P28" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10">
+        <v>290872.0</v>
+      </c>
+      <c r="D29" s="10">
+        <v>219818.0</v>
+      </c>
+      <c r="E29" s="10">
+        <v>207825.0</v>
+      </c>
+      <c r="F29" s="10">
+        <v>242995.0</v>
+      </c>
+      <c r="G29" s="11">
+        <v>307726.0</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="22">
+        <f t="shared" ref="K29:O29" si="16">C34/C4</f>
+        <v>0.3998465675</v>
+      </c>
+      <c r="L29" s="22">
+        <f t="shared" si="16"/>
+        <v>0.4177052556</v>
+      </c>
+      <c r="M29" s="22">
+        <f t="shared" si="16"/>
+        <v>0.411967129</v>
+      </c>
+      <c r="N29" s="22">
+        <f t="shared" si="16"/>
+        <v>0.4073237889</v>
+      </c>
+      <c r="O29" s="11">
+        <f t="shared" si="16"/>
+        <v>0.3751814579</v>
+      </c>
+      <c r="P29" s="12">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10">
+        <v>118944.0</v>
+      </c>
+      <c r="D30" s="10">
+        <v>95023.0</v>
+      </c>
+      <c r="E30" s="10">
+        <v>94039.0</v>
+      </c>
+      <c r="F30" s="10">
+        <v>101560.0</v>
+      </c>
+      <c r="G30" s="11">
+        <v>113488.0</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="9"/>
+      <c r="K30" s="22">
+        <f t="shared" ref="K30:O30" si="17">C35/C5</f>
+        <v>0.4438343142</v>
+      </c>
+      <c r="L30" s="22">
+        <f t="shared" si="17"/>
+        <v>0.4491690254</v>
+      </c>
+      <c r="M30" s="22">
+        <f t="shared" si="17"/>
+        <v>0.4343412245</v>
+      </c>
+      <c r="N30" s="22">
+        <f t="shared" si="17"/>
+        <v>0.4352584267</v>
+      </c>
+      <c r="O30" s="11">
+        <f t="shared" si="17"/>
+        <v>0.4103486016</v>
+      </c>
+      <c r="P30" s="12">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18">
+        <v>72242.0</v>
+      </c>
+      <c r="D31" s="18">
+        <v>56195.0</v>
+      </c>
+      <c r="E31" s="18">
+        <v>56996.0</v>
+      </c>
+      <c r="F31" s="18">
+        <v>48894.0</v>
+      </c>
+      <c r="G31" s="19">
+        <v>54242.0</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="17"/>
+      <c r="K31" s="18">
+        <f t="shared" ref="K31:O31" si="18">C36/C6</f>
+        <v>0.5008883002</v>
+      </c>
+      <c r="L31" s="22">
+        <f t="shared" si="18"/>
+        <v>0.4819205704</v>
+      </c>
+      <c r="M31" s="22">
+        <f t="shared" si="18"/>
+        <v>0.4868833166</v>
+      </c>
+      <c r="N31" s="22">
+        <f t="shared" si="18"/>
+        <v>0.4868648828</v>
+      </c>
+      <c r="O31" s="11">
+        <f t="shared" si="18"/>
+        <v>0.423000644</v>
+      </c>
+      <c r="P31" s="20">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2019.0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="L33" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="M33" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="N33" s="5">
+        <v>2019.0</v>
+      </c>
+      <c r="O33" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="P33" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10">
+        <v>949630.0</v>
+      </c>
+      <c r="D34" s="10">
+        <v>1053357.0</v>
+      </c>
+      <c r="E34" s="10">
+        <v>1053863.0</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1105946.0</v>
+      </c>
+      <c r="G34" s="11">
+        <v>1119603.0</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="22">
+        <f t="shared" ref="K34:O34" si="19">C39/C4</f>
+        <v>0.002594962665</v>
+      </c>
+      <c r="L34" s="22">
+        <f t="shared" si="19"/>
+        <v>0.001854252428</v>
+      </c>
+      <c r="M34" s="22">
+        <f t="shared" si="19"/>
+        <v>0.001739556018</v>
+      </c>
+      <c r="N34" s="22">
+        <f t="shared" si="19"/>
+        <v>0.001705981838</v>
+      </c>
+      <c r="O34" s="11">
+        <f t="shared" si="19"/>
+        <v>0.00150226328</v>
+      </c>
+      <c r="P34" s="12">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10">
+        <v>523839.0</v>
+      </c>
+      <c r="D35" s="10">
+        <v>544776.0</v>
+      </c>
+      <c r="E35" s="10">
+        <v>579730.0</v>
+      </c>
+      <c r="F35" s="10">
+        <v>621956.0</v>
+      </c>
+      <c r="G35" s="11">
+        <v>666631.0</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="22">
+        <f t="shared" ref="K35:O35" si="20">C40/C5</f>
+        <v>0.002395239007</v>
+      </c>
+      <c r="L35" s="22">
+        <f t="shared" si="20"/>
+        <v>0.001428037858</v>
+      </c>
+      <c r="M35" s="22">
+        <f t="shared" si="20"/>
+        <v>0.001105089104</v>
+      </c>
+      <c r="N35" s="22">
+        <f t="shared" si="20"/>
+        <v>0.00139194575</v>
+      </c>
+      <c r="O35" s="11">
+        <f t="shared" si="20"/>
+        <v>0.001587518497</v>
+      </c>
+      <c r="P35" s="12">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18">
+        <v>589529.0</v>
+      </c>
+      <c r="D36" s="18">
+        <v>616374.0</v>
+      </c>
+      <c r="E36" s="18">
+        <v>649942.0</v>
+      </c>
+      <c r="F36" s="18">
+        <v>689055.0</v>
+      </c>
+      <c r="G36" s="19">
+        <v>725812.0</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="17"/>
+      <c r="K36" s="18">
+        <f t="shared" ref="K36:O36" si="21">C41/C6</f>
+        <v>0.001770652873</v>
+      </c>
+      <c r="L36" s="22">
+        <f t="shared" si="21"/>
+        <v>0.001952314122</v>
+      </c>
+      <c r="M36" s="22">
+        <f t="shared" si="21"/>
+        <v>0.002106520099</v>
+      </c>
+      <c r="N36" s="22">
+        <f t="shared" si="21"/>
+        <v>0.00127111758</v>
+      </c>
+      <c r="O36" s="11">
+        <f t="shared" si="21"/>
+        <v>0.00142435448</v>
+      </c>
+      <c r="P36" s="20">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="E38" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>2019.0</v>
+      </c>
+      <c r="G38" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="L38" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="M38" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="N38" s="5">
+        <v>2019.0</v>
+      </c>
+      <c r="O38" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="P38" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10">
+        <v>6163.0</v>
+      </c>
+      <c r="D39" s="10">
+        <v>4676.0</v>
+      </c>
+      <c r="E39" s="10">
+        <v>4450.0</v>
+      </c>
+      <c r="F39" s="10">
+        <v>4632.0</v>
+      </c>
+      <c r="G39" s="11">
+        <v>4483.0</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="22">
+        <f t="shared" ref="K39:O39" si="22">C44/C4</f>
+        <v>0.06777892585</v>
+      </c>
+      <c r="L39" s="22">
+        <f t="shared" si="22"/>
+        <v>0.07992517957</v>
+      </c>
+      <c r="M39" s="22">
+        <f t="shared" si="22"/>
+        <v>0.0949148673</v>
+      </c>
+      <c r="N39" s="22">
+        <f t="shared" si="22"/>
+        <v>0.08871031898</v>
+      </c>
+      <c r="O39" s="11">
+        <f t="shared" si="22"/>
+        <v>0.07728395624</v>
+      </c>
+      <c r="P39" s="12">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10">
+        <v>2827.0</v>
+      </c>
+      <c r="D40" s="10">
+        <v>1732.0</v>
+      </c>
+      <c r="E40" s="10">
+        <v>1475.0</v>
+      </c>
+      <c r="F40" s="10">
+        <v>1989.0</v>
+      </c>
+      <c r="G40" s="11">
+        <v>2579.0</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" s="9"/>
+      <c r="K40" s="22">
+        <f t="shared" ref="K40:O40" si="23">C45/C5</f>
+        <v>0.1578485382</v>
+      </c>
+      <c r="L40" s="22">
+        <f t="shared" si="23"/>
+        <v>0.1821960287</v>
+      </c>
+      <c r="M40" s="22">
+        <f t="shared" si="23"/>
+        <v>0.220719634</v>
+      </c>
+      <c r="N40" s="22">
+        <f t="shared" si="23"/>
+        <v>0.2148180288</v>
+      </c>
+      <c r="O40" s="11">
+        <f t="shared" si="23"/>
+        <v>0.1926782096</v>
+      </c>
+      <c r="P40" s="12">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18">
+        <v>2084.0</v>
+      </c>
+      <c r="D41" s="18">
+        <v>2497.0</v>
+      </c>
+      <c r="E41" s="18">
+        <v>2812.0</v>
+      </c>
+      <c r="F41" s="18">
+        <v>1799.0</v>
+      </c>
+      <c r="G41" s="19">
+        <v>2444.0</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" s="17"/>
+      <c r="K41" s="18">
+        <f t="shared" ref="K41:O41" si="24">C46/C6</f>
+        <v>0.07311334982</v>
+      </c>
+      <c r="L41" s="22">
+        <f t="shared" si="24"/>
+        <v>0.1051051802</v>
+      </c>
+      <c r="M41" s="22">
+        <f t="shared" si="24"/>
+        <v>0.09542191455</v>
+      </c>
+      <c r="N41" s="22">
+        <f t="shared" si="24"/>
+        <v>0.1172445223</v>
+      </c>
+      <c r="O41" s="11">
+        <f t="shared" si="24"/>
+        <v>0.09858701005</v>
+      </c>
+      <c r="P41" s="20">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="D43" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="F43" s="5">
+        <v>2019.0</v>
+      </c>
+      <c r="G43" s="6">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="10">
+        <v>160974.0</v>
+      </c>
+      <c r="D44" s="10">
+        <v>201553.0</v>
+      </c>
+      <c r="E44" s="10">
+        <v>242804.0</v>
+      </c>
+      <c r="F44" s="10">
+        <v>240862.0</v>
+      </c>
+      <c r="G44" s="11">
+        <v>230628.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="10">
+        <v>186302.0</v>
+      </c>
+      <c r="D45" s="10">
+        <v>220977.0</v>
+      </c>
+      <c r="E45" s="10">
+        <v>294602.0</v>
+      </c>
+      <c r="F45" s="10">
+        <v>306961.0</v>
+      </c>
+      <c r="G45" s="11">
+        <v>313015.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18">
+        <v>86052.0</v>
+      </c>
+      <c r="D46" s="18">
+        <v>134429.0</v>
+      </c>
+      <c r="E46" s="18">
+        <v>127379.0</v>
+      </c>
+      <c r="F46" s="18">
+        <v>165935.0</v>
+      </c>
+      <c r="G46" s="19">
+        <v>169162.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2019.0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33">
+        <v>2017.0</v>
+      </c>
+      <c r="K3" s="33">
+        <v>2018.0</v>
+      </c>
+      <c r="L3" s="33">
+        <v>2019.0</v>
+      </c>
+      <c r="M3" s="34">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="F4" s="35"/>
+      <c r="H4" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="F5" s="35"/>
+      <c r="H5" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="H6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="42"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="44"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2019.0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33">
+        <v>2017.0</v>
+      </c>
+      <c r="K8" s="33">
+        <v>2018.0</v>
+      </c>
+      <c r="L8" s="33">
+        <v>2019.0</v>
+      </c>
+      <c r="M8" s="34">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="F9" s="35"/>
+      <c r="H9" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="39"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="F10" s="35"/>
+      <c r="H10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="39"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="H11" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2019.0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33">
+        <v>2017.0</v>
+      </c>
+      <c r="D18" s="33">
+        <v>2018.0</v>
+      </c>
+      <c r="E18" s="33">
+        <v>2019.0</v>
+      </c>
+      <c r="F18" s="34">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="44"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33">
+        <v>2017.0</v>
+      </c>
+      <c r="D3" s="33">
+        <v>2018.0</v>
+      </c>
+      <c r="E3" s="33">
+        <v>2019.0</v>
+      </c>
+      <c r="F3" s="34">
+        <v>2020.0</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33">
+        <v>2017.0</v>
+      </c>
+      <c r="K3" s="33">
+        <v>2018.0</v>
+      </c>
+      <c r="L3" s="33">
+        <v>2019.0</v>
+      </c>
+      <c r="M3" s="34">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="H4" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="H5" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
+      <c r="H6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="42"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="44"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33">
+        <v>2017.0</v>
+      </c>
+      <c r="D8" s="33">
+        <v>2018.0</v>
+      </c>
+      <c r="E8" s="33">
+        <v>2019.0</v>
+      </c>
+      <c r="F8" s="34">
+        <v>2020.0</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33">
+        <v>2017.0</v>
+      </c>
+      <c r="K8" s="33">
+        <v>2018.0</v>
+      </c>
+      <c r="L8" s="33">
+        <v>2019.0</v>
+      </c>
+      <c r="M8" s="34">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="H9" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="39"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
+      <c r="H10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="39"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
+      <c r="H11" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33">
+        <v>2017.0</v>
+      </c>
+      <c r="D13" s="33">
+        <v>2018.0</v>
+      </c>
+      <c r="E13" s="33">
+        <v>2019.0</v>
+      </c>
+      <c r="F13" s="34">
+        <v>2020.0</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33">
+        <v>2017.0</v>
+      </c>
+      <c r="K13" s="33">
+        <v>2018.0</v>
+      </c>
+      <c r="L13" s="33">
+        <v>2019.0</v>
+      </c>
+      <c r="M13" s="34">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="H14" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="39"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="H15" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="39"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="44"/>
+      <c r="H16" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="44"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33">
+        <v>2017.0</v>
+      </c>
+      <c r="D18" s="33">
+        <v>2018.0</v>
+      </c>
+      <c r="E18" s="33">
+        <v>2019.0</v>
+      </c>
+      <c r="F18" s="34">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="44"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33">
+        <v>2017.0</v>
+      </c>
+      <c r="D23" s="33">
+        <v>2018.0</v>
+      </c>
+      <c r="E23" s="33">
+        <v>2019.0</v>
+      </c>
+      <c r="F23" s="34">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33">
+        <v>2017.0</v>
+      </c>
+      <c r="D28" s="33">
+        <v>2018.0</v>
+      </c>
+      <c r="E28" s="33">
+        <v>2019.0</v>
+      </c>
+      <c r="F28" s="34">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="37"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="37"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="44"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33">
+        <v>2017.0</v>
+      </c>
+      <c r="D33" s="33">
+        <v>2018.0</v>
+      </c>
+      <c r="E33" s="33">
+        <v>2019.0</v>
+      </c>
+      <c r="F33" s="34">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="37"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="44"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/OIM-Tables.xlsx
+++ b/OIM-Tables.xlsx
@@ -1,15 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jores\faks\drugi_semester\oim\OIM_seminarska\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EF94BE-D7BE-47F2-B40A-8096ED1F1F08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Dupont" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Struktura sredstev, virov" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Likvidnost, solventnost" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Tržna uspešnost" sheetId="4" r:id="rId7"/>
+    <sheet name="Dupont" sheetId="1" r:id="rId1"/>
+    <sheet name="Struktura sredstev, virov" sheetId="2" r:id="rId2"/>
+    <sheet name="Likvidnost, solventnost" sheetId="3" r:id="rId3"/>
+    <sheet name="Tržna uspešnost" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -229,29 +249,40 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -285,83 +316,12 @@
     </fill>
   </fills>
   <borders count="14">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -374,152 +334,216 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="48">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sl-SI"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -536,7 +560,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -549,9 +573,12 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -569,17 +596,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Dupont!$K$3:$O$3</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dupont!$K$4:$O$4</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4509559214243789E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.710578399069543E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8734447587372625E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2071869272880488E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0437884781131332E-3</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CED7-4976-AF85-77960DD03270}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -598,17 +667,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Dupont!$K$3:$O$3</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dupont!$K$5:$O$5</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.8607745086243857E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.456216045967648E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3134662037529584E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0074076147620436E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.040112080406365E-3</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CED7-4976-AF85-77960DD03270}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -627,18 +738,69 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Dupont!$K$3:$O$3</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dupont!$K$6:$O$6</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.8948687601266641E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2775929538426649E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1265058210222016E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.834231853542384E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.809314835374578E-3</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CED7-4976-AF85-77960DD03270}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="961882480"/>
         <c:axId val="230580740"/>
       </c:lineChart>
@@ -663,15 +825,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -680,7 +834,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -693,9 +847,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="230580740"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="230580740"/>
@@ -738,15 +898,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -771,9 +923,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="961882480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -791,16 +946,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sl-SI"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -817,7 +984,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -830,9 +997,12 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -850,17 +1020,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$23:$O$23</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$24:$O$24</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.12247314299957979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7168105272048893E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.124117517368197E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9495910357873146E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10311966768582424</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D9E-4946-812A-B8410E2E61F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -879,17 +1091,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$23:$O$23</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$25:$O$25</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.10077796549567976</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8346675153542933E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.045523677376915E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1073911689475022E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9858200557939815E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6D9E-4946-812A-B8410E2E61F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -908,18 +1162,69 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$23:$O$23</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$26:$O$26</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.137980079305537E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3936841035344155E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.269673526840527E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4546983303775196E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.16120440710662E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6D9E-4946-812A-B8410E2E61F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="175537515"/>
         <c:axId val="1903238099"/>
       </c:lineChart>
@@ -944,15 +1249,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -961,7 +1258,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -974,9 +1271,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1903238099"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1903238099"/>
@@ -1019,15 +1322,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1052,9 +1347,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="175537515"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1072,16 +1370,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sl-SI"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1098,7 +1408,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -1111,9 +1421,12 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1131,17 +1444,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$28:$O$28</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$29:$O$29</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.39984656751660852</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41770525555254623</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41196712903674726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40732378887075199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37518145785553342</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8306-4A93-AD2A-378C5538F265}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1160,17 +1515,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$28:$O$28</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$30:$O$30</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.44383431419232067</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44916902543012222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43434122454361695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43525842673039711</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41034860158025493</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8306-4A93-AD2A-378C5538F265}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1189,18 +1586,69 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$28:$O$28</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$31:$O$31</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.50088830018173836</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48192057044789072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48688331661551437</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48686488281553603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42300064399005749</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8306-4A93-AD2A-378C5538F265}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="1488595902"/>
         <c:axId val="63920011"/>
       </c:lineChart>
@@ -1225,15 +1673,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1242,7 +1682,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -1255,9 +1695,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="63920011"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="63920011"/>
@@ -1300,15 +1746,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1333,9 +1771,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1488595902"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1353,16 +1794,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sl-SI"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1379,7 +1832,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -1392,9 +1845,12 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1412,17 +1868,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$33:$O$33</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$34:$O$34</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.594962665043078E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.854252428154658E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7395560183947299E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7059818382175289E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.50226328043633E-3</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-25A5-4933-8C98-EF7B0700718D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1441,17 +1939,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$33:$O$33</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$35:$O$35</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.3952390070645572E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4280378578442729E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1050891038963569E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3919457498066741E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.58751849745283E-3</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-25A5-4933-8C98-EF7B0700718D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1470,18 +2010,69 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$33:$O$33</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$36:$O$36</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.7706528730202292E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9523141216345645E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1065200992132012E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2711175801425857E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4243544801018728E-3</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-25A5-4933-8C98-EF7B0700718D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="86658023"/>
         <c:axId val="1403236339"/>
       </c:lineChart>
@@ -1506,15 +2097,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1523,7 +2106,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -1536,9 +2119,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1403236339"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1403236339"/>
@@ -1581,15 +2170,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1614,9 +2195,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="86658023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1634,16 +2218,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sl-SI"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1660,7 +2256,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -1673,9 +2269,12 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1693,17 +2292,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$38:$O$38</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$39:$O$39</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.7778925854720826E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9925179566265131E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4914867301194153E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8710318980300185E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7283956243691707E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ADC7-4DD4-A886-63311DDF0D22}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1722,17 +2363,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$38:$O$38</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$40:$O$40</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.15784853820096961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18219602870257154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2207196340244573</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21481802881166742</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19267820956967724</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ADC7-4DD4-A886-63311DDF0D22}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1751,18 +2434,69 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$38:$O$38</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$41:$O$41</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.3113349822042595E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10510518023917216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5421914551094722E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11724452232404667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.858701005032447E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ADC7-4DD4-A886-63311DDF0D22}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="1691941458"/>
         <c:axId val="620068364"/>
       </c:lineChart>
@@ -1787,15 +2521,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1804,7 +2530,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -1817,9 +2543,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="620068364"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="620068364"/>
@@ -1862,15 +2594,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1895,9 +2619,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1691941458"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1915,16 +2642,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sl-SI"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1941,7 +2680,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -1954,9 +2693,12 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1974,17 +2716,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Dupont!$K$8:$O$8</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dupont!$K$9:$O$9</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.7590748044655395E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18626128951329654</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23629043672448771</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12260644289254337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.669594444620605E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A0CC-4FF6-843C-FD880FBE5373}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2003,17 +2787,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Dupont!$K$8:$O$8</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dupont!$K$10:$O$10</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.27230829319099076</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2820084093535617</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29197200300638859</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27979218294856745</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24240690108306309</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A0CC-4FF6-843C-FD880FBE5373}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2032,18 +2858,69 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Dupont!$K$8:$O$8</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dupont!$K$11:$O$11</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.27084062026349537</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29452512101485562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31253687694004773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30446852550834042</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23606867969212553</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A0CC-4FF6-843C-FD880FBE5373}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="1549804"/>
         <c:axId val="147602989"/>
       </c:lineChart>
@@ -2068,15 +2945,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2085,7 +2954,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -2098,9 +2967,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="147602989"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="147602989"/>
@@ -2143,15 +3018,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2176,9 +3043,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1549804"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2196,16 +3066,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sl-SI"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2222,7 +3104,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -2235,9 +3117,12 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2255,17 +3140,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Dupont!$K$13:$O$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dupont!$K$14:$O$14</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.5194253776653842E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5290163143283036E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4856887312733864E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6158388186002111E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1136237820709586E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-458A-4E1D-B3BE-05078B75773A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2284,17 +3211,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Dupont!$K$13:$O$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dupont!$K$15:$O$15</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2539495601809097E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3531681085836457E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1898490635587314E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2193206828862057E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9042539832618057E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-458A-4E1D-B3BE-05078B75773A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2313,18 +3282,69 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Dupont!$K$13:$O$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dupont!$K$16:$O$16</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.9149500368319588E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8104879221576316E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9201372684007753E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9015254824099654E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4608579346277241E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-458A-4E1D-B3BE-05078B75773A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="2057749046"/>
         <c:axId val="2011034827"/>
       </c:lineChart>
@@ -2349,15 +3369,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2366,7 +3378,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -2379,9 +3391,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2011034827"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="2011034827"/>
@@ -2424,15 +3442,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2457,9 +3467,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2057749046"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2477,16 +3490,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sl-SI"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2503,7 +3528,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -2516,9 +3541,12 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2536,17 +3564,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Dupont!$K$18:$O$18</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dupont!$K$19:$O$19</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13.008062307616472</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.744520419869511</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.169303316876793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.092386903896859</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.557252615917461</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92E1-4C2D-89A9-F2826D78E62B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2565,17 +3635,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Dupont!$K$18:$O$18</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dupont!$K$20:$O$20</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16.481288052281741</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.295654861073789</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.693565130385842</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.087414050822122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.72310901610059</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-92E1-4C2D-89A9-F2826D78E62B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2594,18 +3706,69 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Dupont!$K$18:$O$18</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dupont!$K$21:$O$21</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15.859096666397175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.010174225295916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.677948525737133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.137672318445627</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.967360914773977</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-92E1-4C2D-89A9-F2826D78E62B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="874905833"/>
         <c:axId val="1492661183"/>
       </c:lineChart>
@@ -2630,15 +3793,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2647,7 +3802,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -2660,9 +3815,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1492661183"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1492661183"/>
@@ -2705,15 +3866,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2738,9 +3891,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="874905833"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2758,16 +3914,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sl-SI"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2784,7 +3952,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -2797,9 +3965,12 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2817,17 +3988,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Dupont!$K$23:$O$23</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dupont!$K$24:$O$24</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.887412503149339E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.003406259633802E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7349175542731241E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5196919052463307E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9751945169394375E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-35E3-43EC-ADFB-FC4910C98C95}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2846,17 +4059,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Dupont!$K$23:$O$23</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dupont!$K$25:$O$25</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.14603697704295371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15409523297683669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15547495466199737</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15391330343796714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13181278596701509</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-35E3-43EC-ADFB-FC4910C98C95}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2875,18 +4130,69 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Dupont!$K$23:$O$23</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dupont!$K$26:$O$26</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.12520548683536797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1408032983109456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15221139430284858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14256393883764151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10437805631472581</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-35E3-43EC-ADFB-FC4910C98C95}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="963929992"/>
         <c:axId val="529583446"/>
       </c:lineChart>
@@ -2911,15 +4217,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2928,7 +4226,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -2941,9 +4239,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="529583446"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="529583446"/>
@@ -2986,15 +4290,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3019,9 +4315,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="963929992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3039,16 +4338,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sl-SI"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3065,7 +4376,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -3078,9 +4389,12 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3098,17 +4412,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$3:$O$3</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$4:$O$4</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.92312459947132319</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92153490542955729</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92406583887254878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92903970017148207</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93130571912267557</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-26F1-4D78-9729-EB620E3339DF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3127,17 +4483,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$3:$O$3</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$5:$O$5</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.93932513060703682</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9386339482196111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94009667843929956</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94147739400322616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94659006689860814</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-26F1-4D78-9729-EB620E3339DF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3156,18 +4554,69 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$3:$O$3</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$6:$O$6</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.93694470618122683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94121165446307453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94004058721869677</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93803319461029189</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9443435235289489</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-26F1-4D78-9729-EB620E3339DF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="1150725802"/>
         <c:axId val="1586025462"/>
       </c:lineChart>
@@ -3192,15 +4641,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3209,7 +4650,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -3222,9 +4663,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1586025462"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1586025462"/>
@@ -3267,15 +4714,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3300,9 +4739,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1150725802"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3320,16 +4762,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sl-SI"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3346,7 +4800,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -3359,9 +4813,12 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3379,17 +4836,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$8:$O$8</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$9:$O$9</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.6875400528676807E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8465094570442762E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5934161127451216E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0960299828517884E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8694280877324432E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAEC-405C-8236-62B645B7DA1C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3408,17 +4907,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$8:$O$8</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$10:$O$10</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.0674869392963231E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1366051780388883E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9903321560700482E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8522605996773822E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3409933101391895E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAEC-405C-8236-62B645B7DA1C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3437,18 +4978,69 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$8:$O$8</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$11:$O$11</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.3055293818773173E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8788345536925475E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9959412781303213E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.196680538970812E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5656476471051042E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FAEC-405C-8236-62B645B7DA1C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="1332327396"/>
         <c:axId val="1088666907"/>
       </c:lineChart>
@@ -3473,15 +5065,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3490,7 +5074,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -3503,9 +5087,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1088666907"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1088666907"/>
@@ -3548,15 +5138,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3581,9 +5163,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1332327396"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3601,16 +5186,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sl-SI"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3627,7 +5224,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -3640,9 +5237,12 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3660,17 +5260,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$13:$O$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$14:$O$14</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.3898844035291153E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1625853418093868E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3657195663697305E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6755201918713943E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10203226096152893</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F28-4153-A590-0B101108BE75}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3689,17 +5331,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$13:$O$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$15:$O$15</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.2648929301898398E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3421634773546342E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2632974060749184E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8412314066070187E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3182202064820498E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1F28-4153-A590-0B101108BE75}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3718,18 +5402,69 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$13:$O$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$16:$O$16</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.3195493161660436E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.104781488590651E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5470742068899387E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.436044909523843E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7561230050149634E-3</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1F28-4153-A590-0B101108BE75}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="1060299256"/>
         <c:axId val="1997077325"/>
       </c:lineChart>
@@ -3754,15 +5489,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3771,7 +5498,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -3784,9 +5511,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1997077325"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1997077325"/>
@@ -3829,15 +5562,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3862,9 +5587,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1060299256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3882,16 +5610,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sl-SI"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3908,7 +5648,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -3921,9 +5661,12 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3941,17 +5684,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$18:$O$18</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$19:$O$19</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9000583582387433E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1142034704975194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3087747114682484E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.364890068769631E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7740365475892081E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E836-4CEA-978C-AAA23BF8204E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3970,17 +5755,59 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$18:$O$18</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$20:$O$20</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1281855323158157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10525348084227849</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.609255477121284E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10254770160994027</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3759297970881746E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E836-4CEA-978C-AAA23BF8204E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3999,18 +5826,69 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$18:$O$18</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Struktura sredstev, virov'!$K$21:$O$21</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.4332865747297925E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1249731234289427E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5809957727265582E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10315906987260562</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6439201219210129E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E836-4CEA-978C-AAA23BF8204E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="1476461246"/>
         <c:axId val="1387159896"/>
       </c:lineChart>
@@ -4035,15 +5913,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4052,7 +5922,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -4065,9 +5935,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1387159896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1387159896"/>
@@ -4110,15 +5986,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-SI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4143,9 +6011,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1476461246"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4163,16 +6034,24 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -4181,9 +6060,15 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4410075" cy="2724150"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Tabela"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Tabela">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4192,7 +6077,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4206,9 +6091,15 @@
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4410075" cy="2724150"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Tabela"/>
+        <xdr:cNvPr id="3" name="Chart 2" title="Tabela">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4217,7 +6108,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4231,9 +6122,15 @@
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4410075" cy="2724150"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Tabela"/>
+        <xdr:cNvPr id="4" name="Chart 3" title="Tabela">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4242,7 +6139,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4256,9 +6153,15 @@
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4410075" cy="2724150"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 4" title="Tabela"/>
+        <xdr:cNvPr id="5" name="Chart 4" title="Tabela">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4267,7 +6170,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4281,9 +6184,15 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4419600" cy="2724150"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 5" title="Tabela"/>
+        <xdr:cNvPr id="6" name="Chart 5" title="Tabela">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4292,7 +6201,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4302,7 +6211,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -4311,9 +6220,15 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4267200" cy="2581275"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 6" title="Tabela"/>
+        <xdr:cNvPr id="6" name="Chart 6" title="Tabela">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4322,7 +6237,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4336,9 +6251,15 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4267200" cy="2581275"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 7" title="Tabela"/>
+        <xdr:cNvPr id="7" name="Chart 7" title="Tabela">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4347,7 +6268,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4361,9 +6282,15 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4267200" cy="2581275"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 8" title="Tabela"/>
+        <xdr:cNvPr id="8" name="Chart 8" title="Tabela">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4372,7 +6299,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4386,9 +6313,15 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4267200" cy="2581275"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 9" title="Tabela"/>
+        <xdr:cNvPr id="9" name="Chart 9" title="Tabela">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4397,7 +6330,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4411,9 +6344,15 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4267200" cy="2581275"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 10" title="Tabela"/>
+        <xdr:cNvPr id="10" name="Chart 10" title="Tabela">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4422,7 +6361,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4436,9 +6375,15 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4267200" cy="2581275"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 11" title="Tabela"/>
+        <xdr:cNvPr id="11" name="Chart 11" title="Tabela">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4447,7 +6392,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4461,9 +6406,15 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4267200" cy="2581275"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 12" title="Tabela"/>
+        <xdr:cNvPr id="12" name="Chart 12" title="Tabela">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4472,7 +6423,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4486,9 +6437,15 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4267200" cy="2581275"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 13" title="Tabela"/>
+        <xdr:cNvPr id="13" name="Chart 13" title="Tabela">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4497,7 +6454,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4506,16 +6463,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -4705,20 +6654,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4728,95 +6680,95 @@
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="D3" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E3" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="F3" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="G3" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="L3" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="M3" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="N3" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="O3" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10">
-        <v>2374986.0</v>
+        <v>2374986</v>
       </c>
       <c r="D4" s="10">
-        <v>2521771.0</v>
+        <v>2521771</v>
       </c>
       <c r="E4" s="10">
-        <v>2558124.0</v>
+        <v>2558124</v>
       </c>
       <c r="F4" s="10">
-        <v>2715152.0</v>
+        <v>2715152</v>
       </c>
       <c r="G4" s="11">
-        <v>2984164.0</v>
+        <v>2984164</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="10">
-        <f t="shared" ref="K4:O4" si="1">C19/C4</f>
-        <v>0.001450955921</v>
+        <f t="shared" ref="K4:O4" si="0">C19/C4</f>
+        <v>1.4509559214243789E-3</v>
       </c>
       <c r="L4" s="10">
-        <f t="shared" si="1"/>
-        <v>0.004710578399</v>
+        <f t="shared" si="0"/>
+        <v>4.710578399069543E-3</v>
       </c>
       <c r="M4" s="10">
-        <f t="shared" si="1"/>
-        <v>0.005873444759</v>
+        <f t="shared" si="0"/>
+        <v>5.8734447587372625E-3</v>
       </c>
       <c r="N4" s="10">
-        <f t="shared" si="1"/>
-        <v>0.003207186927</v>
+        <f t="shared" si="0"/>
+        <v>3.2071869272880488E-3</v>
       </c>
       <c r="O4" s="11">
-        <f t="shared" si="1"/>
-        <v>0.002043788478</v>
+        <f t="shared" si="0"/>
+        <v>2.0437884781131332E-3</v>
       </c>
       <c r="P4" s="12">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="13" t="s">
         <v>6</v>
@@ -4826,52 +6778,52 @@
       <c r="T4" s="14"/>
       <c r="U4" s="15"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10">
-        <v>1180258.0</v>
+        <v>1180258</v>
       </c>
       <c r="D5" s="10">
-        <v>1212853.0</v>
+        <v>1212853</v>
       </c>
       <c r="E5" s="10">
-        <v>1334734.0</v>
+        <v>1334734</v>
       </c>
       <c r="F5" s="10">
-        <v>1428935.0</v>
+        <v>1428935</v>
       </c>
       <c r="G5" s="11">
-        <v>1624548.0</v>
+        <v>1624548</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="10">
-        <f t="shared" ref="K5:O5" si="2">C20/C5</f>
-        <v>0.008860774509</v>
+        <f t="shared" ref="K5:O5" si="1">C20/C5</f>
+        <v>8.8607745086243857E-3</v>
       </c>
       <c r="L5" s="10">
-        <f t="shared" si="2"/>
-        <v>0.009456216046</v>
+        <f t="shared" si="1"/>
+        <v>9.456216045967648E-3</v>
       </c>
       <c r="M5" s="10">
-        <f t="shared" si="2"/>
-        <v>0.009313466204</v>
+        <f t="shared" si="1"/>
+        <v>9.3134662037529584E-3</v>
       </c>
       <c r="N5" s="10">
-        <f t="shared" si="2"/>
-        <v>0.009007407615</v>
+        <f t="shared" si="1"/>
+        <v>9.0074076147620436E-3</v>
       </c>
       <c r="O5" s="11">
-        <f t="shared" si="2"/>
-        <v>0.00704011208</v>
+        <f t="shared" si="1"/>
+        <v>7.040112080406365E-3</v>
       </c>
       <c r="P5" s="12">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="Q5" s="13" t="s">
         <v>8</v>
@@ -4881,52 +6833,52 @@
       <c r="T5" s="14"/>
       <c r="U5" s="15"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="18">
-        <v>1176967.0</v>
+        <v>1176967</v>
       </c>
       <c r="D6" s="18">
-        <v>1278995.0</v>
+        <v>1278995</v>
       </c>
       <c r="E6" s="18">
-        <v>1334903.0</v>
+        <v>1334903</v>
       </c>
       <c r="F6" s="18">
-        <v>1415290.0</v>
+        <v>1415290</v>
       </c>
       <c r="G6" s="19">
-        <v>1715865.0</v>
+        <v>1715865</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>9</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="18">
-        <f t="shared" ref="K6:O6" si="3">C21/C6</f>
-        <v>0.00789486876</v>
+        <f t="shared" ref="K6:O6" si="2">C21/C6</f>
+        <v>7.8948687601266641E-3</v>
       </c>
       <c r="L6" s="18">
-        <f t="shared" si="3"/>
-        <v>0.008277592954</v>
+        <f t="shared" si="2"/>
+        <v>8.2775929538426649E-3</v>
       </c>
       <c r="M6" s="18">
-        <f t="shared" si="3"/>
-        <v>0.009126505821</v>
+        <f t="shared" si="2"/>
+        <v>9.1265058210222016E-3</v>
       </c>
       <c r="N6" s="18">
-        <f t="shared" si="3"/>
-        <v>0.008834231854</v>
+        <f t="shared" si="2"/>
+        <v>8.834231853542384E-3</v>
       </c>
       <c r="O6" s="19">
-        <f t="shared" si="3"/>
-        <v>0.005809314835</v>
+        <f t="shared" si="2"/>
+        <v>5.809314835374578E-3</v>
       </c>
       <c r="P6" s="20">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Q6" s="13" t="s">
         <v>10</v>
@@ -4936,95 +6888,95 @@
       <c r="T6" s="14"/>
       <c r="U6" s="15"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="D8" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E8" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="F8" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="G8" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="L8" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="M8" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="N8" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="O8" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="P8" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10">
-        <v>182578.0</v>
+        <v>182578</v>
       </c>
       <c r="D9" s="10">
-        <v>197871.0</v>
+        <v>197871</v>
       </c>
       <c r="E9" s="10">
-        <v>194249.0</v>
+        <v>194249</v>
       </c>
       <c r="F9" s="10">
-        <v>192668.0</v>
+        <v>192668</v>
       </c>
       <c r="G9" s="11">
-        <v>204995.0</v>
+        <v>204995</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="10">
-        <f t="shared" ref="K9:O9" si="4">C19/C14</f>
-        <v>0.05759074804</v>
+        <f t="shared" ref="K9:O9" si="3">C19/C14</f>
+        <v>5.7590748044655395E-2</v>
       </c>
       <c r="L9" s="10">
-        <f t="shared" si="4"/>
-        <v>0.1862612895</v>
+        <f t="shared" si="3"/>
+        <v>0.18626128951329654</v>
       </c>
       <c r="M9" s="22">
-        <f t="shared" si="4"/>
-        <v>0.2362904367</v>
+        <f t="shared" si="3"/>
+        <v>0.23629043672448771</v>
       </c>
       <c r="N9" s="22">
-        <f t="shared" si="4"/>
-        <v>0.1226064429</v>
+        <f t="shared" si="3"/>
+        <v>0.12260644289254337</v>
       </c>
       <c r="O9" s="11">
-        <f t="shared" si="4"/>
-        <v>0.09669594445</v>
+        <f t="shared" si="3"/>
+        <v>9.669594444620605E-2</v>
       </c>
       <c r="P9" s="12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q9" s="13" t="s">
         <v>13</v>
@@ -5034,52 +6986,52 @@
       <c r="T9" s="14"/>
       <c r="U9" s="15"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="10">
-        <v>71612.0</v>
+        <v>71612</v>
       </c>
       <c r="D10" s="10">
-        <v>74428.0</v>
+        <v>74428</v>
       </c>
       <c r="E10" s="10">
-        <v>79955.0</v>
+        <v>79955</v>
       </c>
       <c r="F10" s="10">
-        <v>83625.0</v>
+        <v>83625</v>
       </c>
       <c r="G10" s="11">
-        <v>86767.0</v>
+        <v>86767</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="22">
-        <f t="shared" ref="K10:O10" si="5">C20/C15</f>
-        <v>0.2723082932</v>
+        <f t="shared" ref="K10:O10" si="4">C20/C15</f>
+        <v>0.27230829319099076</v>
       </c>
       <c r="L10" s="22">
-        <f t="shared" si="5"/>
-        <v>0.2820084094</v>
+        <f t="shared" si="4"/>
+        <v>0.2820084093535617</v>
       </c>
       <c r="M10" s="22">
-        <f t="shared" si="5"/>
-        <v>0.291972003</v>
+        <f t="shared" si="4"/>
+        <v>0.29197200300638859</v>
       </c>
       <c r="N10" s="22">
-        <f t="shared" si="5"/>
-        <v>0.2797921829</v>
+        <f t="shared" si="4"/>
+        <v>0.27979218294856745</v>
       </c>
       <c r="O10" s="11">
-        <f t="shared" si="5"/>
-        <v>0.2424069011</v>
+        <f t="shared" si="4"/>
+        <v>0.24240690108306309</v>
       </c>
       <c r="P10" s="12">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Q10" s="13" t="s">
         <v>14</v>
@@ -5089,52 +7041,52 @@
       <c r="T10" s="14"/>
       <c r="U10" s="15"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="18">
-        <v>74214.0</v>
+        <v>74214</v>
       </c>
       <c r="D11" s="18">
-        <v>75190.0</v>
+        <v>75190</v>
       </c>
       <c r="E11" s="18">
-        <v>80040.0</v>
+        <v>80040</v>
       </c>
       <c r="F11" s="18">
-        <v>87701.0</v>
+        <v>87701</v>
       </c>
       <c r="G11" s="19">
-        <v>95499.0</v>
+        <v>95499</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>9</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="18">
-        <f t="shared" ref="K11:O11" si="6">C21/C16</f>
-        <v>0.2708406203</v>
+        <f t="shared" ref="K11:O11" si="5">C21/C16</f>
+        <v>0.27084062026349537</v>
       </c>
       <c r="L11" s="18">
-        <f t="shared" si="6"/>
-        <v>0.294525121</v>
+        <f t="shared" si="5"/>
+        <v>0.29452512101485562</v>
       </c>
       <c r="M11" s="18">
-        <f t="shared" si="6"/>
-        <v>0.3125368769</v>
+        <f t="shared" si="5"/>
+        <v>0.31253687694004773</v>
       </c>
       <c r="N11" s="18">
-        <f t="shared" si="6"/>
-        <v>0.3044685255</v>
+        <f t="shared" si="5"/>
+        <v>0.30446852550834042</v>
       </c>
       <c r="O11" s="19">
-        <f t="shared" si="6"/>
-        <v>0.2360686797</v>
+        <f t="shared" si="5"/>
+        <v>0.23606867969212553</v>
       </c>
       <c r="P11" s="20">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="Q11" s="13" t="s">
         <v>15</v>
@@ -5144,95 +7096,95 @@
       <c r="T11" s="14"/>
       <c r="U11" s="15"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="D13" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E13" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="F13" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="G13" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="L13" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="M13" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="N13" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="O13" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="P13" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10">
-        <v>59836.0</v>
+        <v>59836</v>
       </c>
       <c r="D14" s="10">
-        <v>63776.0</v>
+        <v>63776</v>
       </c>
       <c r="E14" s="10">
-        <v>63587.0</v>
+        <v>63587</v>
       </c>
       <c r="F14" s="10">
-        <v>71024.0</v>
+        <v>71024</v>
       </c>
       <c r="G14" s="11">
-        <v>63074.0</v>
+        <v>63074</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="22">
-        <f t="shared" ref="K14:O14" si="7">C14/C4</f>
-        <v>0.02519425378</v>
+        <f t="shared" ref="K14:O14" si="6">C14/C4</f>
+        <v>2.5194253776653842E-2</v>
       </c>
       <c r="L14" s="22">
-        <f t="shared" si="7"/>
-        <v>0.02529016314</v>
+        <f t="shared" si="6"/>
+        <v>2.5290163143283036E-2</v>
       </c>
       <c r="M14" s="22">
-        <f t="shared" si="7"/>
-        <v>0.02485688731</v>
+        <f t="shared" si="6"/>
+        <v>2.4856887312733864E-2</v>
       </c>
       <c r="N14" s="22">
-        <f t="shared" si="7"/>
-        <v>0.02615838819</v>
+        <f t="shared" si="6"/>
+        <v>2.6158388186002111E-2</v>
       </c>
       <c r="O14" s="11">
-        <f t="shared" si="7"/>
-        <v>0.02113623782</v>
+        <f t="shared" si="6"/>
+        <v>2.1136237820709586E-2</v>
       </c>
       <c r="P14" s="12">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Q14" s="13" t="s">
         <v>18</v>
@@ -5242,52 +7194,52 @@
       <c r="T14" s="14"/>
       <c r="U14" s="15"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="10">
-        <v>38405.0</v>
+        <v>38405</v>
       </c>
       <c r="D15" s="10">
-        <v>40669.0</v>
+        <v>40669</v>
       </c>
       <c r="E15" s="10">
-        <v>42576.0</v>
+        <v>42576</v>
       </c>
       <c r="F15" s="10">
-        <v>46002.0</v>
+        <v>46002</v>
       </c>
       <c r="G15" s="11">
-        <v>47181.0</v>
+        <v>47181</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="22">
-        <f t="shared" ref="K15:O15" si="8">C15/C5</f>
-        <v>0.0325394956</v>
+        <f t="shared" ref="K15:O15" si="7">C15/C5</f>
+        <v>3.2539495601809097E-2</v>
       </c>
       <c r="L15" s="22">
-        <f t="shared" si="8"/>
-        <v>0.03353168109</v>
+        <f t="shared" si="7"/>
+        <v>3.3531681085836457E-2</v>
       </c>
       <c r="M15" s="22">
-        <f t="shared" si="8"/>
-        <v>0.03189849064</v>
+        <f t="shared" si="7"/>
+        <v>3.1898490635587314E-2</v>
       </c>
       <c r="N15" s="22">
-        <f t="shared" si="8"/>
-        <v>0.03219320683</v>
+        <f t="shared" si="7"/>
+        <v>3.2193206828862057E-2</v>
       </c>
       <c r="O15" s="11">
-        <f t="shared" si="8"/>
-        <v>0.02904253983</v>
+        <f t="shared" si="7"/>
+        <v>2.9042539832618057E-2</v>
       </c>
       <c r="P15" s="12">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="Q15" s="13" t="s">
         <v>19</v>
@@ -5297,52 +7249,52 @@
       <c r="T15" s="14"/>
       <c r="U15" s="15"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="18">
-        <v>34308.0</v>
+        <v>34308</v>
       </c>
       <c r="D16" s="18">
-        <v>35946.0</v>
+        <v>35946</v>
       </c>
       <c r="E16" s="18">
-        <v>38981.0</v>
+        <v>38981</v>
       </c>
       <c r="F16" s="18">
-        <v>41065.0</v>
+        <v>41065</v>
       </c>
       <c r="G16" s="19">
-        <v>42225.0</v>
+        <v>42225</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>9</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="18">
-        <f t="shared" ref="K16:O16" si="9">C16/C6</f>
-        <v>0.02914950037</v>
+        <f t="shared" ref="K16:O16" si="8">C16/C6</f>
+        <v>2.9149500368319588E-2</v>
       </c>
       <c r="L16" s="18">
-        <f t="shared" si="9"/>
-        <v>0.02810487922</v>
+        <f t="shared" si="8"/>
+        <v>2.8104879221576316E-2</v>
       </c>
       <c r="M16" s="18">
-        <f t="shared" si="9"/>
-        <v>0.02920137268</v>
+        <f t="shared" si="8"/>
+        <v>2.9201372684007753E-2</v>
       </c>
       <c r="N16" s="18">
-        <f t="shared" si="9"/>
-        <v>0.02901525482</v>
+        <f t="shared" si="8"/>
+        <v>2.9015254824099654E-2</v>
       </c>
       <c r="O16" s="19">
-        <f t="shared" si="9"/>
-        <v>0.02460857935</v>
+        <f t="shared" si="8"/>
+        <v>2.4608579346277241E-2</v>
       </c>
       <c r="P16" s="20">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Q16" s="13" t="s">
         <v>20</v>
@@ -5352,95 +7304,95 @@
       <c r="T16" s="14"/>
       <c r="U16" s="15"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="D18" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E18" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="F18" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="G18" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="L18" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="M18" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="N18" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="O18" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="P18" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="10">
-        <v>3446.0</v>
+        <v>3446</v>
       </c>
       <c r="D19" s="10">
-        <v>11879.0</v>
+        <v>11879</v>
       </c>
       <c r="E19" s="10">
-        <v>15025.0</v>
+        <v>15025</v>
       </c>
       <c r="F19" s="10">
-        <v>8708.0</v>
+        <v>8708</v>
       </c>
       <c r="G19" s="11">
-        <v>6099.0</v>
+        <v>6099</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="22">
-        <f t="shared" ref="K19:O19" si="10">C4/C9</f>
-        <v>13.00806231</v>
+        <f t="shared" ref="K19:O19" si="9">C4/C9</f>
+        <v>13.008062307616472</v>
       </c>
       <c r="L19" s="22">
-        <f t="shared" si="10"/>
-        <v>12.74452042</v>
+        <f t="shared" si="9"/>
+        <v>12.744520419869511</v>
       </c>
       <c r="M19" s="22">
-        <f t="shared" si="10"/>
-        <v>13.16930332</v>
+        <f t="shared" si="9"/>
+        <v>13.169303316876793</v>
       </c>
       <c r="N19" s="22">
-        <f t="shared" si="10"/>
-        <v>14.0923869</v>
+        <f t="shared" si="9"/>
+        <v>14.092386903896859</v>
       </c>
       <c r="O19" s="11">
-        <f t="shared" si="10"/>
-        <v>14.55725262</v>
+        <f t="shared" si="9"/>
+        <v>14.557252615917461</v>
       </c>
       <c r="P19" s="12">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Q19" s="13" t="s">
         <v>23</v>
@@ -5450,52 +7402,52 @@
       <c r="T19" s="14"/>
       <c r="U19" s="15"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10">
-        <v>10458.0</v>
+        <v>10458</v>
       </c>
       <c r="D20" s="10">
-        <v>11469.0</v>
+        <v>11469</v>
       </c>
       <c r="E20" s="10">
-        <v>12431.0</v>
+        <v>12431</v>
       </c>
       <c r="F20" s="10">
-        <v>12871.0</v>
+        <v>12871</v>
       </c>
       <c r="G20" s="11">
-        <v>11437.0</v>
+        <v>11437</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="22">
-        <f t="shared" ref="K20:O20" si="11">C5/C10</f>
-        <v>16.48128805</v>
+        <f t="shared" ref="K20:O20" si="10">C5/C10</f>
+        <v>16.481288052281741</v>
       </c>
       <c r="L20" s="22">
-        <f t="shared" si="11"/>
-        <v>16.29565486</v>
+        <f t="shared" si="10"/>
+        <v>16.295654861073789</v>
       </c>
       <c r="M20" s="22">
-        <f t="shared" si="11"/>
-        <v>16.69356513</v>
+        <f t="shared" si="10"/>
+        <v>16.693565130385842</v>
       </c>
       <c r="N20" s="22">
-        <f t="shared" si="11"/>
-        <v>17.08741405</v>
+        <f t="shared" si="10"/>
+        <v>17.087414050822122</v>
       </c>
       <c r="O20" s="11">
-        <f t="shared" si="11"/>
-        <v>18.72310902</v>
+        <f t="shared" si="10"/>
+        <v>18.72310901610059</v>
       </c>
       <c r="P20" s="12">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="Q20" s="13" t="s">
         <v>24</v>
@@ -5505,52 +7457,52 @@
       <c r="T20" s="14"/>
       <c r="U20" s="15"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="18">
-        <v>9292.0</v>
+        <v>9292</v>
       </c>
       <c r="D21" s="18">
-        <v>10587.0</v>
+        <v>10587</v>
       </c>
       <c r="E21" s="18">
-        <v>12183.0</v>
+        <v>12183</v>
       </c>
       <c r="F21" s="18">
-        <v>12503.0</v>
+        <v>12503</v>
       </c>
       <c r="G21" s="19">
-        <v>9968.0</v>
+        <v>9968</v>
       </c>
       <c r="I21" s="16" t="s">
         <v>9</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="18">
-        <f t="shared" ref="K21:O21" si="12">C6/C11</f>
-        <v>15.85909667</v>
+        <f t="shared" ref="K21:O21" si="11">C6/C11</f>
+        <v>15.859096666397175</v>
       </c>
       <c r="L21" s="18">
-        <f t="shared" si="12"/>
-        <v>17.01017423</v>
+        <f t="shared" si="11"/>
+        <v>17.010174225295916</v>
       </c>
       <c r="M21" s="18">
-        <f t="shared" si="12"/>
-        <v>16.67794853</v>
+        <f t="shared" si="11"/>
+        <v>16.677948525737133</v>
       </c>
       <c r="N21" s="18">
-        <f t="shared" si="12"/>
-        <v>16.13767232</v>
+        <f t="shared" si="11"/>
+        <v>16.137672318445627</v>
       </c>
       <c r="O21" s="19">
-        <f t="shared" si="12"/>
-        <v>17.96736091</v>
+        <f t="shared" si="11"/>
+        <v>17.967360914773977</v>
       </c>
       <c r="P21" s="20">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Q21" s="13" t="s">
         <v>25</v>
@@ -5560,57 +7512,57 @@
       <c r="T21" s="14"/>
       <c r="U21" s="15"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="L23" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="M23" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="N23" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="O23" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="P23" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I24" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="10">
-        <f t="shared" ref="K24:O24" si="13">K9*K14*K19</f>
-        <v>0.01887412503</v>
+        <f t="shared" ref="K24:O24" si="12">K9*K14*K19</f>
+        <v>1.887412503149339E-2</v>
       </c>
       <c r="L24" s="22">
-        <f t="shared" si="13"/>
-        <v>0.0600340626</v>
+        <f t="shared" si="12"/>
+        <v>6.003406259633802E-2</v>
       </c>
       <c r="M24" s="22">
-        <f t="shared" si="13"/>
-        <v>0.07734917554</v>
+        <f t="shared" si="12"/>
+        <v>7.7349175542731241E-2</v>
       </c>
       <c r="N24" s="22">
-        <f t="shared" si="13"/>
-        <v>0.04519691905</v>
+        <f t="shared" si="12"/>
+        <v>4.5196919052463307E-2</v>
       </c>
       <c r="O24" s="11">
-        <f t="shared" si="13"/>
-        <v>0.02975194517</v>
+        <f t="shared" si="12"/>
+        <v>2.9751945169394375E-2</v>
       </c>
       <c r="P24" s="12">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q24" s="13" t="s">
         <v>27</v>
@@ -5620,33 +7572,33 @@
       <c r="T24" s="14"/>
       <c r="U24" s="15"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I25" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="22">
-        <f t="shared" ref="K25:O25" si="14">K10*K15*K20</f>
-        <v>0.146036977</v>
+        <f t="shared" ref="K25:O25" si="13">K10*K15*K20</f>
+        <v>0.14603697704295371</v>
       </c>
       <c r="L25" s="22">
-        <f t="shared" si="14"/>
-        <v>0.154095233</v>
+        <f t="shared" si="13"/>
+        <v>0.15409523297683669</v>
       </c>
       <c r="M25" s="22">
-        <f t="shared" si="14"/>
-        <v>0.1554749547</v>
+        <f t="shared" si="13"/>
+        <v>0.15547495466199737</v>
       </c>
       <c r="N25" s="22">
-        <f t="shared" si="14"/>
-        <v>0.1539133034</v>
+        <f t="shared" si="13"/>
+        <v>0.15391330343796714</v>
       </c>
       <c r="O25" s="11">
-        <f t="shared" si="14"/>
-        <v>0.131812786</v>
+        <f t="shared" si="13"/>
+        <v>0.13181278596701509</v>
       </c>
       <c r="P25" s="12">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="Q25" s="13" t="s">
         <v>28</v>
@@ -5656,33 +7608,33 @@
       <c r="T25" s="14"/>
       <c r="U25" s="15"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I26" s="16" t="s">
         <v>9</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="18">
-        <f t="shared" ref="K26:O26" si="15">K11*K16*K21</f>
-        <v>0.1252054868</v>
+        <f t="shared" ref="K26:O26" si="14">K11*K16*K21</f>
+        <v>0.12520548683536797</v>
       </c>
       <c r="L26" s="18">
-        <f t="shared" si="15"/>
-        <v>0.1408032983</v>
+        <f t="shared" si="14"/>
+        <v>0.1408032983109456</v>
       </c>
       <c r="M26" s="18">
-        <f t="shared" si="15"/>
-        <v>0.1522113943</v>
+        <f t="shared" si="14"/>
+        <v>0.15221139430284858</v>
       </c>
       <c r="N26" s="18">
-        <f t="shared" si="15"/>
-        <v>0.1425639388</v>
+        <f t="shared" si="14"/>
+        <v>0.14256393883764151</v>
       </c>
       <c r="O26" s="19">
-        <f t="shared" si="15"/>
-        <v>0.1043780563</v>
+        <f t="shared" si="14"/>
+        <v>0.10437805631472581</v>
       </c>
       <c r="P26" s="20">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Q26" s="13" t="s">
         <v>29</v>
@@ -5692,7 +7644,7 @@
       <c r="T26" s="14"/>
       <c r="U26" s="15"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I28" s="3" t="s">
         <v>4</v>
       </c>
@@ -5713,2034 +7665,2216 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I29" s="24" t="s">
         <v>5</v>
       </c>
       <c r="J29" s="25"/>
       <c r="K29" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L29" s="10">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M29" s="10">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="N29" s="10">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="O29" s="11">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L30" s="10">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="M30" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N30" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="O30" s="11">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I31" s="16" t="s">
         <v>9</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="18">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L31" s="18">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M31" s="18">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N31" s="18">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="O31" s="19">
-        <v>7.0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="D3" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E3" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="F3" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="G3" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="L3" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="M3" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="N3" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="O3" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="P3" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10">
-        <v>2374986.0</v>
+        <v>2374986</v>
       </c>
       <c r="D4" s="10">
-        <v>2521771.0</v>
+        <v>2521771</v>
       </c>
       <c r="E4" s="10">
-        <v>2558124.0</v>
+        <v>2558124</v>
       </c>
       <c r="F4" s="10">
-        <v>2715152.0</v>
+        <v>2715152</v>
       </c>
       <c r="G4" s="11">
-        <v>2984164.0</v>
+        <v>2984164</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="22">
-        <f t="shared" ref="K4:O4" si="1">C19/C4</f>
-        <v>0.9231245995</v>
+        <f t="shared" ref="K4:O4" si="0">C19/C4</f>
+        <v>0.92312459947132319</v>
       </c>
       <c r="L4" s="22">
-        <f t="shared" si="1"/>
-        <v>0.9215349054</v>
+        <f t="shared" si="0"/>
+        <v>0.92153490542955729</v>
       </c>
       <c r="M4" s="22">
-        <f t="shared" si="1"/>
-        <v>0.9240658389</v>
+        <f t="shared" si="0"/>
+        <v>0.92406583887254878</v>
       </c>
       <c r="N4" s="22">
-        <f t="shared" si="1"/>
-        <v>0.9290397002</v>
+        <f t="shared" si="0"/>
+        <v>0.92903970017148207</v>
       </c>
       <c r="O4" s="11">
-        <f t="shared" si="1"/>
-        <v>0.9313057191</v>
+        <f t="shared" si="0"/>
+        <v>0.93130571912267557</v>
       </c>
       <c r="P4" s="26">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10">
-        <v>1180258.0</v>
+        <v>1180258</v>
       </c>
       <c r="D5" s="10">
-        <v>1212853.0</v>
+        <v>1212853</v>
       </c>
       <c r="E5" s="10">
-        <v>1334734.0</v>
+        <v>1334734</v>
       </c>
       <c r="F5" s="10">
-        <v>1428935.0</v>
+        <v>1428935</v>
       </c>
       <c r="G5" s="11">
-        <v>1624548.0</v>
+        <v>1624548</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="22">
-        <f t="shared" ref="K5:O5" si="2">C20/C5</f>
-        <v>0.9393251306</v>
+        <f t="shared" ref="K5:O5" si="1">C20/C5</f>
+        <v>0.93932513060703682</v>
       </c>
       <c r="L5" s="22">
-        <f t="shared" si="2"/>
-        <v>0.9386339482</v>
+        <f t="shared" si="1"/>
+        <v>0.9386339482196111</v>
       </c>
       <c r="M5" s="22">
-        <f t="shared" si="2"/>
-        <v>0.9400966784</v>
+        <f t="shared" si="1"/>
+        <v>0.94009667843929956</v>
       </c>
       <c r="N5" s="22">
-        <f t="shared" si="2"/>
-        <v>0.941477394</v>
+        <f t="shared" si="1"/>
+        <v>0.94147739400322616</v>
       </c>
       <c r="O5" s="11">
-        <f t="shared" si="2"/>
-        <v>0.9465900669</v>
+        <f t="shared" si="1"/>
+        <v>0.94659006689860814</v>
       </c>
       <c r="P5" s="26">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="18">
-        <v>1176967.0</v>
+        <v>1176967</v>
       </c>
       <c r="D6" s="18">
-        <v>1278995.0</v>
+        <v>1278995</v>
       </c>
       <c r="E6" s="18">
-        <v>1334903.0</v>
+        <v>1334903</v>
       </c>
       <c r="F6" s="18">
-        <v>1415290.0</v>
+        <v>1415290</v>
       </c>
       <c r="G6" s="19">
-        <v>1715865.0</v>
+        <v>1715865</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>9</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="18">
-        <f t="shared" ref="K6:O6" si="3">C21/C6</f>
-        <v>0.9369447062</v>
+        <f t="shared" ref="K6:O6" si="2">C21/C6</f>
+        <v>0.93694470618122683</v>
       </c>
       <c r="L6" s="28">
-        <f t="shared" si="3"/>
-        <v>0.9412116545</v>
+        <f t="shared" si="2"/>
+        <v>0.94121165446307453</v>
       </c>
       <c r="M6" s="28">
-        <f t="shared" si="3"/>
-        <v>0.9400405872</v>
+        <f t="shared" si="2"/>
+        <v>0.94004058721869677</v>
       </c>
       <c r="N6" s="28">
-        <f t="shared" si="3"/>
-        <v>0.9380331946</v>
+        <f t="shared" si="2"/>
+        <v>0.93803319461029189</v>
       </c>
       <c r="O6" s="19">
-        <f t="shared" si="3"/>
-        <v>0.9443435235</v>
+        <f t="shared" si="2"/>
+        <v>0.9443435235289489</v>
       </c>
       <c r="P6" s="29">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q6" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="D8" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E8" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="F8" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="G8" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="L8" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="M8" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="N8" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="O8" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="P8" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10">
-        <v>128009.0</v>
+        <v>128009</v>
       </c>
       <c r="D9" s="10">
-        <v>180624.0</v>
+        <v>180624</v>
       </c>
       <c r="E9" s="10">
-        <v>162843.0</v>
+        <v>162843</v>
       </c>
       <c r="F9" s="10">
-        <v>154099.0</v>
+        <v>154099</v>
       </c>
       <c r="G9" s="11">
-        <v>304481.0</v>
+        <v>304481</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="22">
-        <f t="shared" ref="K9:O9" si="4">C24/C4</f>
-        <v>0.07687540053</v>
+        <f t="shared" ref="K9:O9" si="3">C24/C4</f>
+        <v>7.6875400528676807E-2</v>
       </c>
       <c r="L9" s="22">
-        <f t="shared" si="4"/>
-        <v>0.07846509457</v>
+        <f t="shared" si="3"/>
+        <v>7.8465094570442762E-2</v>
       </c>
       <c r="M9" s="22">
-        <f t="shared" si="4"/>
-        <v>0.07593416113</v>
+        <f t="shared" si="3"/>
+        <v>7.5934161127451216E-2</v>
       </c>
       <c r="N9" s="22">
-        <f t="shared" si="4"/>
-        <v>0.07096029983</v>
+        <f t="shared" si="3"/>
+        <v>7.0960299828517884E-2</v>
       </c>
       <c r="O9" s="11">
-        <f t="shared" si="4"/>
-        <v>0.06869428088</v>
+        <f t="shared" si="3"/>
+        <v>6.8694280877324432E-2</v>
       </c>
       <c r="P9" s="26">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="10">
-        <v>14929.0</v>
+        <v>14929</v>
       </c>
       <c r="D10" s="10">
-        <v>28407.0</v>
+        <v>28407</v>
       </c>
       <c r="E10" s="10">
-        <v>30209.0</v>
+        <v>30209</v>
       </c>
       <c r="F10" s="10">
-        <v>26310.0</v>
+        <v>26310</v>
       </c>
       <c r="G10" s="11">
-        <v>118888.0</v>
+        <v>118888</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="22">
-        <f t="shared" ref="K10:O10" si="5">C25/C5</f>
-        <v>0.06067486939</v>
+        <f t="shared" ref="K10:O10" si="4">C25/C5</f>
+        <v>6.0674869392963231E-2</v>
       </c>
       <c r="L10" s="22">
-        <f t="shared" si="5"/>
-        <v>0.06136605178</v>
+        <f t="shared" si="4"/>
+        <v>6.1366051780388883E-2</v>
       </c>
       <c r="M10" s="22">
-        <f t="shared" si="5"/>
-        <v>0.05990332156</v>
+        <f t="shared" si="4"/>
+        <v>5.9903321560700482E-2</v>
       </c>
       <c r="N10" s="22">
-        <f t="shared" si="5"/>
-        <v>0.058522606</v>
+        <f t="shared" si="4"/>
+        <v>5.8522605996773822E-2</v>
       </c>
       <c r="O10" s="11">
-        <f t="shared" si="5"/>
-        <v>0.0534099331</v>
+        <f t="shared" si="4"/>
+        <v>5.3409933101391895E-2</v>
       </c>
       <c r="P10" s="26">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Q10" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="18">
-        <v>3907.0</v>
+        <v>3907</v>
       </c>
       <c r="D11" s="18">
-        <v>3971.0</v>
+        <v>3971</v>
       </c>
       <c r="E11" s="18">
-        <v>4735.0</v>
+        <v>4735</v>
       </c>
       <c r="F11" s="18">
-        <v>4863.0</v>
+        <v>4863</v>
       </c>
       <c r="G11" s="19">
-        <v>6445.0</v>
+        <v>6445</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>9</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="18">
-        <f t="shared" ref="K11:O11" si="6">C26/C6</f>
-        <v>0.06305529382</v>
+        <f t="shared" ref="K11:O11" si="5">C26/C6</f>
+        <v>6.3055293818773173E-2</v>
       </c>
       <c r="L11" s="28">
-        <f t="shared" si="6"/>
-        <v>0.05878834554</v>
+        <f t="shared" si="5"/>
+        <v>5.8788345536925475E-2</v>
       </c>
       <c r="M11" s="18">
-        <f t="shared" si="6"/>
-        <v>0.05995941278</v>
+        <f t="shared" si="5"/>
+        <v>5.9959412781303213E-2</v>
       </c>
       <c r="N11" s="28">
-        <f t="shared" si="6"/>
-        <v>0.06196680539</v>
+        <f t="shared" si="5"/>
+        <v>6.196680538970812E-2</v>
       </c>
       <c r="O11" s="19">
-        <f t="shared" si="6"/>
-        <v>0.05565647647</v>
+        <f t="shared" si="5"/>
+        <v>5.5656476471051042E-2</v>
       </c>
       <c r="P11" s="29">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="D13" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E13" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="F13" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="G13" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="L13" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="M13" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="N13" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="O13" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="P13" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10">
-        <v>235125.0</v>
+        <v>235125</v>
       </c>
       <c r="D14" s="10">
-        <v>287995.0</v>
+        <v>287995</v>
       </c>
       <c r="E14" s="10">
-        <v>238130.0</v>
+        <v>238130</v>
       </c>
       <c r="F14" s="10">
-        <v>254271.0</v>
+        <v>254271</v>
       </c>
       <c r="G14" s="11">
-        <v>231990.0</v>
+        <v>231990</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="22">
-        <f t="shared" ref="K14:O14" si="7">C9/C4</f>
-        <v>0.05389884404</v>
+        <f t="shared" ref="K14:O14" si="6">C9/C4</f>
+        <v>5.3898844035291153E-2</v>
       </c>
       <c r="L14" s="22">
-        <f t="shared" si="7"/>
-        <v>0.07162585342</v>
+        <f t="shared" si="6"/>
+        <v>7.1625853418093868E-2</v>
       </c>
       <c r="M14" s="22">
-        <f t="shared" si="7"/>
-        <v>0.06365719566</v>
+        <f t="shared" si="6"/>
+        <v>6.3657195663697305E-2</v>
       </c>
       <c r="N14" s="22">
-        <f t="shared" si="7"/>
-        <v>0.05675520192</v>
+        <f t="shared" si="6"/>
+        <v>5.6755201918713943E-2</v>
       </c>
       <c r="O14" s="11">
-        <f t="shared" si="7"/>
-        <v>0.102032261</v>
+        <f t="shared" si="6"/>
+        <v>0.10203226096152893</v>
       </c>
       <c r="P14" s="12">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="10">
-        <v>151292.0</v>
+        <v>151292</v>
       </c>
       <c r="D15" s="10">
-        <v>127657.0</v>
+        <v>127657</v>
       </c>
       <c r="E15" s="10">
-        <v>128258.0</v>
+        <v>128258</v>
       </c>
       <c r="F15" s="10">
-        <v>146534.0</v>
+        <v>146534</v>
       </c>
       <c r="G15" s="11">
-        <v>136071.0</v>
+        <v>136071</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="22">
-        <f t="shared" ref="K15:O15" si="8">C10/C5</f>
-        <v>0.0126489293</v>
+        <f t="shared" ref="K15:O15" si="7">C10/C5</f>
+        <v>1.2648929301898398E-2</v>
       </c>
       <c r="L15" s="22">
-        <f t="shared" si="8"/>
-        <v>0.02342163477</v>
+        <f t="shared" si="7"/>
+        <v>2.3421634773546342E-2</v>
       </c>
       <c r="M15" s="22">
-        <f t="shared" si="8"/>
-        <v>0.02263297406</v>
+        <f t="shared" si="7"/>
+        <v>2.2632974060749184E-2</v>
       </c>
       <c r="N15" s="22">
-        <f t="shared" si="8"/>
-        <v>0.01841231407</v>
+        <f t="shared" si="7"/>
+        <v>1.8412314066070187E-2</v>
       </c>
       <c r="O15" s="11">
-        <f t="shared" si="8"/>
-        <v>0.07318220206</v>
+        <f t="shared" si="7"/>
+        <v>7.3182202064820498E-2</v>
       </c>
       <c r="P15" s="12">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="18">
-        <v>99257.0</v>
+        <v>99257</v>
       </c>
       <c r="D16" s="18">
-        <v>103918.0</v>
+        <v>103918</v>
       </c>
       <c r="E16" s="18">
-        <v>127897.0</v>
+        <v>127897</v>
       </c>
       <c r="F16" s="18">
-        <v>146000.0</v>
+        <v>146000</v>
       </c>
       <c r="G16" s="19">
-        <v>148318.0</v>
+        <v>148318</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>9</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="18">
-        <f t="shared" ref="K16:O16" si="9">C11/C6</f>
-        <v>0.003319549316</v>
+        <f t="shared" ref="K16:O16" si="8">C11/C6</f>
+        <v>3.3195493161660436E-3</v>
       </c>
       <c r="L16" s="22">
-        <f t="shared" si="9"/>
-        <v>0.003104781489</v>
+        <f t="shared" si="8"/>
+        <v>3.104781488590651E-3</v>
       </c>
       <c r="M16" s="22">
-        <f t="shared" si="9"/>
-        <v>0.003547074207</v>
+        <f t="shared" si="8"/>
+        <v>3.5470742068899387E-3</v>
       </c>
       <c r="N16" s="22">
-        <f t="shared" si="9"/>
-        <v>0.00343604491</v>
+        <f t="shared" si="8"/>
+        <v>3.436044909523843E-3</v>
       </c>
       <c r="O16" s="11">
-        <f t="shared" si="9"/>
-        <v>0.003756123005</v>
+        <f t="shared" si="8"/>
+        <v>3.7561230050149634E-3</v>
       </c>
       <c r="P16" s="20">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="D18" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E18" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="F18" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="G18" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>42</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="L18" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="M18" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="N18" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="O18" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="P18" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="10">
-        <v>2192408.0</v>
+        <v>2192408</v>
       </c>
       <c r="D19" s="10">
-        <v>2323900.0</v>
+        <v>2323900</v>
       </c>
       <c r="E19" s="10">
-        <v>2363875.0</v>
+        <v>2363875</v>
       </c>
       <c r="F19" s="10">
-        <v>2522484.0</v>
+        <v>2522484</v>
       </c>
       <c r="G19" s="11">
-        <v>2779169.0</v>
+        <v>2779169</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="22">
-        <f t="shared" ref="K19:O19" si="10">C14/C4</f>
-        <v>0.09900058358</v>
+        <f t="shared" ref="K19:O19" si="9">C14/C4</f>
+        <v>9.9000583582387433E-2</v>
       </c>
       <c r="L19" s="22">
-        <f t="shared" si="10"/>
-        <v>0.1142034705</v>
+        <f t="shared" si="9"/>
+        <v>0.1142034704975194</v>
       </c>
       <c r="M19" s="22">
-        <f t="shared" si="10"/>
-        <v>0.09308774711</v>
+        <f t="shared" si="9"/>
+        <v>9.3087747114682484E-2</v>
       </c>
       <c r="N19" s="22">
-        <f t="shared" si="10"/>
-        <v>0.09364890069</v>
+        <f t="shared" si="9"/>
+        <v>9.364890068769631E-2</v>
       </c>
       <c r="O19" s="11">
-        <f t="shared" si="10"/>
-        <v>0.07774036548</v>
+        <f t="shared" si="9"/>
+        <v>7.7740365475892081E-2</v>
       </c>
       <c r="P19" s="12">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10">
-        <v>1108646.0</v>
+        <v>1108646</v>
       </c>
       <c r="D20" s="10">
-        <v>1138425.0</v>
+        <v>1138425</v>
       </c>
       <c r="E20" s="10">
-        <v>1254779.0</v>
+        <v>1254779</v>
       </c>
       <c r="F20" s="10">
-        <v>1345310.0</v>
+        <v>1345310</v>
       </c>
       <c r="G20" s="11">
-        <v>1537781.0</v>
+        <v>1537781</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="22">
-        <f t="shared" ref="K20:O20" si="11">C15/C5</f>
-        <v>0.1281855323</v>
+        <f t="shared" ref="K20:O20" si="10">C15/C5</f>
+        <v>0.1281855323158157</v>
       </c>
       <c r="L20" s="22">
-        <f t="shared" si="11"/>
-        <v>0.1052534808</v>
+        <f t="shared" si="10"/>
+        <v>0.10525348084227849</v>
       </c>
       <c r="M20" s="22">
-        <f t="shared" si="11"/>
-        <v>0.09609255477</v>
+        <f t="shared" si="10"/>
+        <v>9.609255477121284E-2</v>
       </c>
       <c r="N20" s="22">
-        <f t="shared" si="11"/>
-        <v>0.1025477016</v>
+        <f t="shared" si="10"/>
+        <v>0.10254770160994027</v>
       </c>
       <c r="O20" s="11">
-        <f t="shared" si="11"/>
-        <v>0.08375929797</v>
+        <f t="shared" si="10"/>
+        <v>8.3759297970881746E-2</v>
       </c>
       <c r="P20" s="12">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="18">
-        <v>1102753.0</v>
+        <v>1102753</v>
       </c>
       <c r="D21" s="18">
-        <v>1203805.0</v>
+        <v>1203805</v>
       </c>
       <c r="E21" s="18">
-        <v>1254863.0</v>
+        <v>1254863</v>
       </c>
       <c r="F21" s="18">
-        <v>1327589.0</v>
+        <v>1327589</v>
       </c>
       <c r="G21" s="19">
-        <v>1620366.0</v>
+        <v>1620366</v>
       </c>
       <c r="I21" s="16" t="s">
         <v>9</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="18">
-        <f t="shared" ref="K21:O21" si="12">C16/C6</f>
-        <v>0.08433286575</v>
+        <f t="shared" ref="K21:O21" si="11">C16/C6</f>
+        <v>8.4332865747297925E-2</v>
       </c>
       <c r="L21" s="22">
-        <f t="shared" si="12"/>
-        <v>0.08124973123</v>
+        <f t="shared" si="11"/>
+        <v>8.1249731234289427E-2</v>
       </c>
       <c r="M21" s="22">
-        <f t="shared" si="12"/>
-        <v>0.09580995773</v>
+        <f t="shared" si="11"/>
+        <v>9.5809957727265582E-2</v>
       </c>
       <c r="N21" s="22">
-        <f t="shared" si="12"/>
-        <v>0.1031590699</v>
+        <f t="shared" si="11"/>
+        <v>0.10315906987260562</v>
       </c>
       <c r="O21" s="11">
-        <f t="shared" si="12"/>
-        <v>0.08643920122</v>
+        <f t="shared" si="11"/>
+        <v>8.6439201219210129E-2</v>
       </c>
       <c r="P21" s="20">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="D23" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E23" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="F23" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="G23" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>43</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="L23" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="M23" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="N23" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="O23" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="P23" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="10">
-        <v>182578.0</v>
+        <v>182578</v>
       </c>
       <c r="D24" s="10">
-        <v>197871.0</v>
+        <v>197871</v>
       </c>
       <c r="E24" s="10">
-        <v>194249.0</v>
+        <v>194249</v>
       </c>
       <c r="F24" s="10">
-        <v>192668.0</v>
+        <v>192668</v>
       </c>
       <c r="G24" s="11">
-        <v>204995.0</v>
+        <v>204995</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="22">
-        <f t="shared" ref="K24:O24" si="13">C29/C4</f>
-        <v>0.122473143</v>
+        <f t="shared" ref="K24:O24" si="12">C29/C4</f>
+        <v>0.12247314299957979</v>
       </c>
       <c r="L24" s="22">
-        <f t="shared" si="13"/>
-        <v>0.08716810527</v>
+        <f t="shared" si="12"/>
+        <v>8.7168105272048893E-2</v>
       </c>
       <c r="M24" s="22">
-        <f t="shared" si="13"/>
-        <v>0.08124117517</v>
+        <f t="shared" si="12"/>
+        <v>8.124117517368197E-2</v>
       </c>
       <c r="N24" s="22">
-        <f t="shared" si="13"/>
-        <v>0.08949591036</v>
+        <f t="shared" si="12"/>
+        <v>8.9495910357873146E-2</v>
       </c>
       <c r="O24" s="11">
-        <f t="shared" si="13"/>
-        <v>0.1031196677</v>
+        <f t="shared" si="12"/>
+        <v>0.10311966768582424</v>
       </c>
       <c r="P24" s="12">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="10">
-        <v>71612.0</v>
+        <v>71612</v>
       </c>
       <c r="D25" s="10">
-        <v>74428.0</v>
+        <v>74428</v>
       </c>
       <c r="E25" s="10">
-        <v>79955.0</v>
+        <v>79955</v>
       </c>
       <c r="F25" s="10">
-        <v>83625.0</v>
+        <v>83625</v>
       </c>
       <c r="G25" s="11">
-        <v>86767.0</v>
+        <v>86767</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="22">
-        <f t="shared" ref="K25:O25" si="14">C30/C5</f>
-        <v>0.1007779655</v>
+        <f t="shared" ref="K25:O25" si="13">C30/C5</f>
+        <v>0.10077796549567976</v>
       </c>
       <c r="L25" s="22">
-        <f t="shared" si="14"/>
-        <v>0.07834667515</v>
+        <f t="shared" si="13"/>
+        <v>7.8346675153542933E-2</v>
       </c>
       <c r="M25" s="22">
-        <f t="shared" si="14"/>
-        <v>0.07045523677</v>
+        <f t="shared" si="13"/>
+        <v>7.045523677376915E-2</v>
       </c>
       <c r="N25" s="22">
-        <f t="shared" si="14"/>
-        <v>0.07107391169</v>
+        <f t="shared" si="13"/>
+        <v>7.1073911689475022E-2</v>
       </c>
       <c r="O25" s="11">
-        <f t="shared" si="14"/>
-        <v>0.06985820056</v>
+        <f t="shared" si="13"/>
+        <v>6.9858200557939815E-2</v>
       </c>
       <c r="P25" s="12">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="18">
-        <v>74214.0</v>
+        <v>74214</v>
       </c>
       <c r="D26" s="18">
-        <v>75190.0</v>
+        <v>75190</v>
       </c>
       <c r="E26" s="18">
-        <v>80040.0</v>
+        <v>80040</v>
       </c>
       <c r="F26" s="18">
-        <v>87701.0</v>
+        <v>87701</v>
       </c>
       <c r="G26" s="19">
-        <v>95499.0</v>
+        <v>95499</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>9</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="18">
-        <f t="shared" ref="K26:O26" si="15">C31/C6</f>
-        <v>0.06137980079</v>
+        <f t="shared" ref="K26:O26" si="14">C31/C6</f>
+        <v>6.137980079305537E-2</v>
       </c>
       <c r="L26" s="22">
-        <f t="shared" si="15"/>
-        <v>0.04393684104</v>
+        <f t="shared" si="14"/>
+        <v>4.3936841035344155E-2</v>
       </c>
       <c r="M26" s="22">
-        <f t="shared" si="15"/>
-        <v>0.04269673527</v>
+        <f t="shared" si="14"/>
+        <v>4.269673526840527E-2</v>
       </c>
       <c r="N26" s="22">
-        <f t="shared" si="15"/>
-        <v>0.0345469833</v>
+        <f t="shared" si="14"/>
+        <v>3.4546983303775196E-2</v>
       </c>
       <c r="O26" s="11">
-        <f t="shared" si="15"/>
-        <v>0.03161204407</v>
+        <f t="shared" si="14"/>
+        <v>3.16120440710662E-2</v>
       </c>
       <c r="P26" s="20">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="D28" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E28" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="F28" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="G28" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>45</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="L28" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="M28" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="N28" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="O28" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="P28" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="10">
-        <v>290872.0</v>
+        <v>290872</v>
       </c>
       <c r="D29" s="10">
-        <v>219818.0</v>
+        <v>219818</v>
       </c>
       <c r="E29" s="10">
-        <v>207825.0</v>
+        <v>207825</v>
       </c>
       <c r="F29" s="10">
-        <v>242995.0</v>
+        <v>242995</v>
       </c>
       <c r="G29" s="11">
-        <v>307726.0</v>
+        <v>307726</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="22">
-        <f t="shared" ref="K29:O29" si="16">C34/C4</f>
-        <v>0.3998465675</v>
+        <f t="shared" ref="K29:O29" si="15">C34/C4</f>
+        <v>0.39984656751660852</v>
       </c>
       <c r="L29" s="22">
-        <f t="shared" si="16"/>
-        <v>0.4177052556</v>
+        <f t="shared" si="15"/>
+        <v>0.41770525555254623</v>
       </c>
       <c r="M29" s="22">
-        <f t="shared" si="16"/>
-        <v>0.411967129</v>
+        <f t="shared" si="15"/>
+        <v>0.41196712903674726</v>
       </c>
       <c r="N29" s="22">
-        <f t="shared" si="16"/>
-        <v>0.4073237889</v>
+        <f t="shared" si="15"/>
+        <v>0.40732378887075199</v>
       </c>
       <c r="O29" s="11">
-        <f t="shared" si="16"/>
-        <v>0.3751814579</v>
+        <f t="shared" si="15"/>
+        <v>0.37518145785553342</v>
       </c>
       <c r="P29" s="12">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="10">
-        <v>118944.0</v>
+        <v>118944</v>
       </c>
       <c r="D30" s="10">
-        <v>95023.0</v>
+        <v>95023</v>
       </c>
       <c r="E30" s="10">
-        <v>94039.0</v>
+        <v>94039</v>
       </c>
       <c r="F30" s="10">
-        <v>101560.0</v>
+        <v>101560</v>
       </c>
       <c r="G30" s="11">
-        <v>113488.0</v>
+        <v>113488</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="22">
-        <f t="shared" ref="K30:O30" si="17">C35/C5</f>
-        <v>0.4438343142</v>
+        <f t="shared" ref="K30:O30" si="16">C35/C5</f>
+        <v>0.44383431419232067</v>
       </c>
       <c r="L30" s="22">
-        <f t="shared" si="17"/>
-        <v>0.4491690254</v>
+        <f t="shared" si="16"/>
+        <v>0.44916902543012222</v>
       </c>
       <c r="M30" s="22">
-        <f t="shared" si="17"/>
-        <v>0.4343412245</v>
+        <f t="shared" si="16"/>
+        <v>0.43434122454361695</v>
       </c>
       <c r="N30" s="22">
-        <f t="shared" si="17"/>
-        <v>0.4352584267</v>
+        <f t="shared" si="16"/>
+        <v>0.43525842673039711</v>
       </c>
       <c r="O30" s="11">
-        <f t="shared" si="17"/>
-        <v>0.4103486016</v>
+        <f t="shared" si="16"/>
+        <v>0.41034860158025493</v>
       </c>
       <c r="P30" s="12">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="18">
-        <v>72242.0</v>
+        <v>72242</v>
       </c>
       <c r="D31" s="18">
-        <v>56195.0</v>
+        <v>56195</v>
       </c>
       <c r="E31" s="18">
-        <v>56996.0</v>
+        <v>56996</v>
       </c>
       <c r="F31" s="18">
-        <v>48894.0</v>
+        <v>48894</v>
       </c>
       <c r="G31" s="19">
-        <v>54242.0</v>
+        <v>54242</v>
       </c>
       <c r="I31" s="16" t="s">
         <v>9</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="18">
-        <f t="shared" ref="K31:O31" si="18">C36/C6</f>
-        <v>0.5008883002</v>
+        <f t="shared" ref="K31:O31" si="17">C36/C6</f>
+        <v>0.50088830018173836</v>
       </c>
       <c r="L31" s="22">
-        <f t="shared" si="18"/>
-        <v>0.4819205704</v>
+        <f t="shared" si="17"/>
+        <v>0.48192057044789072</v>
       </c>
       <c r="M31" s="22">
-        <f t="shared" si="18"/>
-        <v>0.4868833166</v>
+        <f t="shared" si="17"/>
+        <v>0.48688331661551437</v>
       </c>
       <c r="N31" s="22">
-        <f t="shared" si="18"/>
-        <v>0.4868648828</v>
+        <f t="shared" si="17"/>
+        <v>0.48686488281553603</v>
       </c>
       <c r="O31" s="11">
-        <f t="shared" si="18"/>
-        <v>0.423000644</v>
+        <f t="shared" si="17"/>
+        <v>0.42300064399005749</v>
       </c>
       <c r="P31" s="20">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="D33" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E33" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="F33" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="G33" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>47</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="L33" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="M33" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="N33" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="O33" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="P33" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="10">
-        <v>949630.0</v>
+        <v>949630</v>
       </c>
       <c r="D34" s="10">
-        <v>1053357.0</v>
+        <v>1053357</v>
       </c>
       <c r="E34" s="10">
-        <v>1053863.0</v>
+        <v>1053863</v>
       </c>
       <c r="F34" s="10">
-        <v>1105946.0</v>
+        <v>1105946</v>
       </c>
       <c r="G34" s="11">
-        <v>1119603.0</v>
+        <v>1119603</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="22">
-        <f t="shared" ref="K34:O34" si="19">C39/C4</f>
-        <v>0.002594962665</v>
+        <f t="shared" ref="K34:O34" si="18">C39/C4</f>
+        <v>2.594962665043078E-3</v>
       </c>
       <c r="L34" s="22">
-        <f t="shared" si="19"/>
-        <v>0.001854252428</v>
+        <f t="shared" si="18"/>
+        <v>1.854252428154658E-3</v>
       </c>
       <c r="M34" s="22">
-        <f t="shared" si="19"/>
-        <v>0.001739556018</v>
+        <f t="shared" si="18"/>
+        <v>1.7395560183947299E-3</v>
       </c>
       <c r="N34" s="22">
-        <f t="shared" si="19"/>
-        <v>0.001705981838</v>
+        <f t="shared" si="18"/>
+        <v>1.7059818382175289E-3</v>
       </c>
       <c r="O34" s="11">
-        <f t="shared" si="19"/>
-        <v>0.00150226328</v>
+        <f t="shared" si="18"/>
+        <v>1.50226328043633E-3</v>
       </c>
       <c r="P34" s="12">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="10">
-        <v>523839.0</v>
+        <v>523839</v>
       </c>
       <c r="D35" s="10">
-        <v>544776.0</v>
+        <v>544776</v>
       </c>
       <c r="E35" s="10">
-        <v>579730.0</v>
+        <v>579730</v>
       </c>
       <c r="F35" s="10">
-        <v>621956.0</v>
+        <v>621956</v>
       </c>
       <c r="G35" s="11">
-        <v>666631.0</v>
+        <v>666631</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="22">
-        <f t="shared" ref="K35:O35" si="20">C40/C5</f>
-        <v>0.002395239007</v>
+        <f t="shared" ref="K35:O35" si="19">C40/C5</f>
+        <v>2.3952390070645572E-3</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="20"/>
-        <v>0.001428037858</v>
+        <f t="shared" si="19"/>
+        <v>1.4280378578442729E-3</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="20"/>
-        <v>0.001105089104</v>
+        <f t="shared" si="19"/>
+        <v>1.1050891038963569E-3</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="20"/>
-        <v>0.00139194575</v>
+        <f t="shared" si="19"/>
+        <v>1.3919457498066741E-3</v>
       </c>
       <c r="O35" s="11">
-        <f t="shared" si="20"/>
-        <v>0.001587518497</v>
+        <f t="shared" si="19"/>
+        <v>1.58751849745283E-3</v>
       </c>
       <c r="P35" s="12">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="18">
-        <v>589529.0</v>
+        <v>589529</v>
       </c>
       <c r="D36" s="18">
-        <v>616374.0</v>
+        <v>616374</v>
       </c>
       <c r="E36" s="18">
-        <v>649942.0</v>
+        <v>649942</v>
       </c>
       <c r="F36" s="18">
-        <v>689055.0</v>
+        <v>689055</v>
       </c>
       <c r="G36" s="19">
-        <v>725812.0</v>
+        <v>725812</v>
       </c>
       <c r="I36" s="16" t="s">
         <v>9</v>
       </c>
       <c r="J36" s="17"/>
       <c r="K36" s="18">
-        <f t="shared" ref="K36:O36" si="21">C41/C6</f>
-        <v>0.001770652873</v>
+        <f t="shared" ref="K36:O36" si="20">C41/C6</f>
+        <v>1.7706528730202292E-3</v>
       </c>
       <c r="L36" s="22">
-        <f t="shared" si="21"/>
-        <v>0.001952314122</v>
+        <f t="shared" si="20"/>
+        <v>1.9523141216345645E-3</v>
       </c>
       <c r="M36" s="22">
-        <f t="shared" si="21"/>
-        <v>0.002106520099</v>
+        <f t="shared" si="20"/>
+        <v>2.1065200992132012E-3</v>
       </c>
       <c r="N36" s="22">
-        <f t="shared" si="21"/>
-        <v>0.00127111758</v>
+        <f t="shared" si="20"/>
+        <v>1.2711175801425857E-3</v>
       </c>
       <c r="O36" s="11">
-        <f t="shared" si="21"/>
-        <v>0.00142435448</v>
+        <f t="shared" si="20"/>
+        <v>1.4243544801018728E-3</v>
       </c>
       <c r="P36" s="20">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="D38" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E38" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="F38" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="G38" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>49</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="L38" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="M38" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="N38" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="O38" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="P38" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="10">
-        <v>6163.0</v>
+        <v>6163</v>
       </c>
       <c r="D39" s="10">
-        <v>4676.0</v>
+        <v>4676</v>
       </c>
       <c r="E39" s="10">
-        <v>4450.0</v>
+        <v>4450</v>
       </c>
       <c r="F39" s="10">
-        <v>4632.0</v>
+        <v>4632</v>
       </c>
       <c r="G39" s="11">
-        <v>4483.0</v>
+        <v>4483</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="22">
-        <f t="shared" ref="K39:O39" si="22">C44/C4</f>
-        <v>0.06777892585</v>
+        <f t="shared" ref="K39:O39" si="21">C44/C4</f>
+        <v>6.7778925854720826E-2</v>
       </c>
       <c r="L39" s="22">
-        <f t="shared" si="22"/>
-        <v>0.07992517957</v>
+        <f t="shared" si="21"/>
+        <v>7.9925179566265131E-2</v>
       </c>
       <c r="M39" s="22">
-        <f t="shared" si="22"/>
-        <v>0.0949148673</v>
+        <f t="shared" si="21"/>
+        <v>9.4914867301194153E-2</v>
       </c>
       <c r="N39" s="22">
-        <f t="shared" si="22"/>
-        <v>0.08871031898</v>
+        <f t="shared" si="21"/>
+        <v>8.8710318980300185E-2</v>
       </c>
       <c r="O39" s="11">
-        <f t="shared" si="22"/>
-        <v>0.07728395624</v>
+        <f t="shared" si="21"/>
+        <v>7.7283956243691707E-2</v>
       </c>
       <c r="P39" s="12">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="10">
-        <v>2827.0</v>
+        <v>2827</v>
       </c>
       <c r="D40" s="10">
-        <v>1732.0</v>
+        <v>1732</v>
       </c>
       <c r="E40" s="10">
-        <v>1475.0</v>
+        <v>1475</v>
       </c>
       <c r="F40" s="10">
-        <v>1989.0</v>
+        <v>1989</v>
       </c>
       <c r="G40" s="11">
-        <v>2579.0</v>
+        <v>2579</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="22">
-        <f t="shared" ref="K40:O40" si="23">C45/C5</f>
-        <v>0.1578485382</v>
+        <f t="shared" ref="K40:O40" si="22">C45/C5</f>
+        <v>0.15784853820096961</v>
       </c>
       <c r="L40" s="22">
-        <f t="shared" si="23"/>
-        <v>0.1821960287</v>
+        <f t="shared" si="22"/>
+        <v>0.18219602870257154</v>
       </c>
       <c r="M40" s="22">
-        <f t="shared" si="23"/>
-        <v>0.220719634</v>
+        <f t="shared" si="22"/>
+        <v>0.2207196340244573</v>
       </c>
       <c r="N40" s="22">
-        <f t="shared" si="23"/>
-        <v>0.2148180288</v>
+        <f t="shared" si="22"/>
+        <v>0.21481802881166742</v>
       </c>
       <c r="O40" s="11">
-        <f t="shared" si="23"/>
-        <v>0.1926782096</v>
+        <f t="shared" si="22"/>
+        <v>0.19267820956967724</v>
       </c>
       <c r="P40" s="12">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="18">
-        <v>2084.0</v>
+        <v>2084</v>
       </c>
       <c r="D41" s="18">
-        <v>2497.0</v>
+        <v>2497</v>
       </c>
       <c r="E41" s="18">
-        <v>2812.0</v>
+        <v>2812</v>
       </c>
       <c r="F41" s="18">
-        <v>1799.0</v>
+        <v>1799</v>
       </c>
       <c r="G41" s="19">
-        <v>2444.0</v>
+        <v>2444</v>
       </c>
       <c r="I41" s="16" t="s">
         <v>9</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="18">
-        <f t="shared" ref="K41:O41" si="24">C46/C6</f>
-        <v>0.07311334982</v>
+        <f t="shared" ref="K41:O41" si="23">C46/C6</f>
+        <v>7.3113349822042595E-2</v>
       </c>
       <c r="L41" s="22">
-        <f t="shared" si="24"/>
-        <v>0.1051051802</v>
+        <f t="shared" si="23"/>
+        <v>0.10510518023917216</v>
       </c>
       <c r="M41" s="22">
-        <f t="shared" si="24"/>
-        <v>0.09542191455</v>
+        <f t="shared" si="23"/>
+        <v>9.5421914551094722E-2</v>
       </c>
       <c r="N41" s="22">
-        <f t="shared" si="24"/>
-        <v>0.1172445223</v>
+        <f t="shared" si="23"/>
+        <v>0.11724452232404667</v>
       </c>
       <c r="O41" s="11">
-        <f t="shared" si="24"/>
-        <v>0.09858701005</v>
+        <f t="shared" si="23"/>
+        <v>9.858701005032447E-2</v>
       </c>
       <c r="P41" s="20">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="D43" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E43" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="F43" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="G43" s="6">
-        <v>2020.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="10">
-        <v>160974.0</v>
+        <v>160974</v>
       </c>
       <c r="D44" s="10">
-        <v>201553.0</v>
+        <v>201553</v>
       </c>
       <c r="E44" s="10">
-        <v>242804.0</v>
+        <v>242804</v>
       </c>
       <c r="F44" s="10">
-        <v>240862.0</v>
+        <v>240862</v>
       </c>
       <c r="G44" s="11">
-        <v>230628.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>230628</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="10">
-        <v>186302.0</v>
+        <v>186302</v>
       </c>
       <c r="D45" s="10">
-        <v>220977.0</v>
+        <v>220977</v>
       </c>
       <c r="E45" s="10">
-        <v>294602.0</v>
+        <v>294602</v>
       </c>
       <c r="F45" s="10">
-        <v>306961.0</v>
+        <v>306961</v>
       </c>
       <c r="G45" s="11">
-        <v>313015.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>313015</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="18">
-        <v>86052.0</v>
+        <v>86052</v>
       </c>
       <c r="D46" s="18">
-        <v>134429.0</v>
+        <v>134429</v>
       </c>
       <c r="E46" s="18">
-        <v>127379.0</v>
+        <v>127379</v>
       </c>
       <c r="F46" s="18">
-        <v>165935.0</v>
+        <v>165935</v>
       </c>
       <c r="G46" s="19">
-        <v>169162.0</v>
+        <v>169162</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="D3" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="E3" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="F3" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>52</v>
       </c>
       <c r="I3" s="32"/>
       <c r="J3" s="33">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="K3" s="33">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="L3" s="33">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="M3" s="34">
-        <v>2020.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="F4" s="35"/>
+      <c r="C4">
+        <v>1745590</v>
+      </c>
+      <c r="D4">
+        <v>1737380</v>
+      </c>
+      <c r="E4">
+        <v>1739970</v>
+      </c>
+      <c r="F4" s="35">
+        <v>1898490</v>
+      </c>
       <c r="H4" s="36" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
-    </row>
-    <row r="5">
+      <c r="J4" s="38">
+        <v>0.94</v>
+      </c>
+      <c r="K4" s="38">
+        <v>0.96</v>
+      </c>
+      <c r="L4" s="38">
+        <v>0.95</v>
+      </c>
+      <c r="M4" s="39">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="F5" s="35"/>
+      <c r="C5">
+        <v>741120</v>
+      </c>
+      <c r="D5">
+        <v>840820</v>
+      </c>
+      <c r="E5">
+        <v>869070</v>
+      </c>
+      <c r="F5" s="35">
+        <v>957020</v>
+      </c>
       <c r="H5" s="40" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
-    </row>
-    <row r="6">
+      <c r="J5" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="K5" s="38">
+        <v>0.91</v>
+      </c>
+      <c r="L5" s="38">
+        <v>0.91</v>
+      </c>
+      <c r="M5" s="39">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="18">
+        <v>772310</v>
+      </c>
+      <c r="D6" s="18">
+        <v>806880</v>
+      </c>
+      <c r="E6" s="18">
+        <v>835130</v>
+      </c>
+      <c r="F6" s="19">
+        <v>973570</v>
+      </c>
       <c r="H6" s="41" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="8">
+      <c r="J6" s="43">
+        <v>0.93</v>
+      </c>
+      <c r="K6" s="43">
+        <v>0.91</v>
+      </c>
+      <c r="L6" s="43">
+        <v>1</v>
+      </c>
+      <c r="M6" s="44">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="D8" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="E8" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="F8" s="6">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="H8" s="31" t="s">
         <v>54</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="33">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="K8" s="33">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="L8" s="33">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="M8" s="34">
-        <v>2020.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="F9" s="35"/>
+      <c r="C9">
+        <v>1852140</v>
+      </c>
+      <c r="D9">
+        <v>1809840</v>
+      </c>
+      <c r="E9">
+        <v>1826840</v>
+      </c>
+      <c r="F9" s="35">
+        <v>2016090</v>
+      </c>
       <c r="H9" s="36" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="39"/>
-    </row>
-    <row r="10">
+      <c r="J9" s="45">
+        <f>C14/C19</f>
+        <v>11.834464693411611</v>
+      </c>
+      <c r="K9" s="38">
+        <f>D14/D19</f>
+        <v>12.169303316876793</v>
+      </c>
+      <c r="L9" s="38">
+        <f>E14/E19</f>
+        <v>13.092386903896859</v>
+      </c>
+      <c r="M9" s="46">
+        <f>F14/F19</f>
+        <v>13.557252615917461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="F10" s="35"/>
+      <c r="C10">
+        <v>820490</v>
+      </c>
+      <c r="D10">
+        <v>919600</v>
+      </c>
+      <c r="E10">
+        <v>952510</v>
+      </c>
+      <c r="F10" s="35">
+        <v>1075580</v>
+      </c>
       <c r="H10" s="40" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="37"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
-    </row>
-    <row r="11">
+      <c r="J10" s="38">
+        <f>C15/C20</f>
+        <v>15.295765495196445</v>
+      </c>
+      <c r="K10" s="38">
+        <f>D15/D20</f>
+        <v>15.693576682278339</v>
+      </c>
+      <c r="L10" s="38">
+        <f>E15/E20</f>
+        <v>16.087525230852364</v>
+      </c>
+      <c r="M10" s="39">
+        <f>F15/F20</f>
+        <v>17.723096706225018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
+      <c r="C11" s="18">
+        <v>831540</v>
+      </c>
+      <c r="D11" s="18">
+        <v>889520</v>
+      </c>
+      <c r="E11" s="18">
+        <v>832620</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1062640</v>
+      </c>
       <c r="H11" s="41" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="42"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
-    </row>
-    <row r="13">
+      <c r="J11" s="43">
+        <f>C16/C21</f>
+        <v>16.010274687065369</v>
+      </c>
+      <c r="K11" s="47">
+        <f>D16/D21</f>
+        <v>15.677969099181659</v>
+      </c>
+      <c r="L11" s="47">
+        <f>E16/E21</f>
+        <v>15.137726184342133</v>
+      </c>
+      <c r="M11" s="44">
+        <f>F16/F21</f>
+        <v>16.967286957011346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="D13" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="E13" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="F13" s="6">
-        <v>2020.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="F14" s="35"/>
-    </row>
-    <row r="15">
+      <c r="C14">
+        <v>2322206</v>
+      </c>
+      <c r="D14">
+        <v>2363875</v>
+      </c>
+      <c r="E14">
+        <v>2522484</v>
+      </c>
+      <c r="F14" s="35">
+        <v>2779169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="F15" s="35"/>
-    </row>
-    <row r="16">
+      <c r="C15">
+        <v>870895</v>
+      </c>
+      <c r="D15">
+        <v>975089</v>
+      </c>
+      <c r="E15">
+        <v>1012211</v>
+      </c>
+      <c r="F15" s="35">
+        <v>1143955</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="18">
+      <c r="C16" s="18">
+        <v>920911</v>
+      </c>
+      <c r="D16" s="18">
+        <v>975154</v>
+      </c>
+      <c r="E16" s="18">
+        <v>998878</v>
+      </c>
+      <c r="F16" s="19">
+        <v>1205390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="33">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="D18" s="33">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="E18" s="33">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="F18" s="34">
-        <v>2020.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-    </row>
-    <row r="20">
+      <c r="C19" s="38">
+        <v>196224</v>
+      </c>
+      <c r="D19" s="38">
+        <v>194249</v>
+      </c>
+      <c r="E19" s="38">
+        <v>192668</v>
+      </c>
+      <c r="F19" s="39">
+        <v>204995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
-    </row>
-    <row r="21">
+      <c r="C20" s="38">
+        <v>56937</v>
+      </c>
+      <c r="D20" s="38">
+        <v>62133</v>
+      </c>
+      <c r="E20" s="38">
+        <v>62919</v>
+      </c>
+      <c r="F20" s="39">
+        <v>64546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="41" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="44"/>
-    </row>
-    <row r="23">
+      <c r="C21" s="43">
+        <v>57520</v>
+      </c>
+      <c r="D21" s="43">
+        <v>62199</v>
+      </c>
+      <c r="E21" s="43">
+        <v>65986</v>
+      </c>
+      <c r="F21" s="44">
+        <v>71042</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="33">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="D3" s="33">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="E3" s="33">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="F3" s="34">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I3" s="32"/>
       <c r="J3" s="33">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="K3" s="33">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="L3" s="33">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="M3" s="34">
-        <v>2020.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
         <v>5</v>
       </c>
@@ -7758,7 +9892,7 @@
       <c r="L4" s="38"/>
       <c r="M4" s="39"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
         <v>7</v>
       </c>
@@ -7776,7 +9910,7 @@
       <c r="L5" s="38"/>
       <c r="M5" s="39"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
         <v>9</v>
       </c>
@@ -7794,41 +9928,41 @@
       <c r="L6" s="43"/>
       <c r="M6" s="44"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="33">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="D8" s="33">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="E8" s="33">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="F8" s="34">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="H8" s="31" t="s">
         <v>63</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="33">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="K8" s="33">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="L8" s="33">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="M8" s="34">
-        <v>2020.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
         <v>5</v>
       </c>
@@ -7846,7 +9980,7 @@
       <c r="L9" s="38"/>
       <c r="M9" s="39"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
         <v>7</v>
       </c>
@@ -7864,7 +9998,7 @@
       <c r="L10" s="38"/>
       <c r="M10" s="39"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
         <v>9</v>
       </c>
@@ -7882,41 +10016,41 @@
       <c r="L11" s="43"/>
       <c r="M11" s="44"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
         <v>64</v>
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="33">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="D13" s="33">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="E13" s="33">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="F13" s="34">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>65</v>
       </c>
       <c r="I13" s="32"/>
       <c r="J13" s="33">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="K13" s="33">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="L13" s="33">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="M13" s="34">
-        <v>2020.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
         <v>5</v>
       </c>
@@ -7934,7 +10068,7 @@
       <c r="L14" s="38"/>
       <c r="M14" s="39"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
         <v>7</v>
       </c>
@@ -7952,7 +10086,7 @@
       <c r="L15" s="38"/>
       <c r="M15" s="39"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
         <v>9</v>
       </c>
@@ -7970,25 +10104,25 @@
       <c r="L16" s="43"/>
       <c r="M16" s="44"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="33">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="D18" s="33">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="E18" s="33">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="F18" s="34">
-        <v>2020.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
         <v>5</v>
       </c>
@@ -7998,7 +10132,7 @@
       <c r="E19" s="38"/>
       <c r="F19" s="39"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
         <v>7</v>
       </c>
@@ -8008,7 +10142,7 @@
       <c r="E20" s="38"/>
       <c r="F20" s="39"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="41" t="s">
         <v>9</v>
       </c>
@@ -8018,25 +10152,25 @@
       <c r="E21" s="43"/>
       <c r="F21" s="44"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
         <v>67</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="33">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="D23" s="33">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="E23" s="33">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="F23" s="34">
-        <v>2020.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
         <v>5</v>
       </c>
@@ -8046,7 +10180,7 @@
       <c r="E24" s="38"/>
       <c r="F24" s="39"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
         <v>7</v>
       </c>
@@ -8056,7 +10190,7 @@
       <c r="E25" s="38"/>
       <c r="F25" s="39"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="41" t="s">
         <v>9</v>
       </c>
@@ -8066,25 +10200,25 @@
       <c r="E26" s="43"/>
       <c r="F26" s="44"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="31" t="s">
         <v>68</v>
       </c>
       <c r="B28" s="32"/>
       <c r="C28" s="33">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="D28" s="33">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="E28" s="33">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="F28" s="34">
-        <v>2020.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="s">
         <v>5</v>
       </c>
@@ -8094,7 +10228,7 @@
       <c r="E29" s="38"/>
       <c r="F29" s="39"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="40" t="s">
         <v>7</v>
       </c>
@@ -8104,7 +10238,7 @@
       <c r="E30" s="38"/>
       <c r="F30" s="39"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="41" t="s">
         <v>9</v>
       </c>
@@ -8114,25 +10248,25 @@
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="31" t="s">
         <v>69</v>
       </c>
       <c r="B33" s="32"/>
       <c r="C33" s="33">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="D33" s="33">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="E33" s="33">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="F33" s="34">
-        <v>2020.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
         <v>5</v>
       </c>
@@ -8142,7 +10276,7 @@
       <c r="E34" s="38"/>
       <c r="F34" s="39"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="40" t="s">
         <v>7</v>
       </c>
@@ -8152,7 +10286,7 @@
       <c r="E35" s="38"/>
       <c r="F35" s="39"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="41" t="s">
         <v>9</v>
       </c>
@@ -8163,6 +10297,6 @@
       <c r="F36" s="44"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>